--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERDT\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Cost-Related" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId5"/>
     <sheet name="Reservation Price Parameters" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +29,7 @@
     <author>ERDT</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="60">
   <si>
     <t>VC_if</t>
   </si>
@@ -77,15 +72,6 @@
     <t>ICW_jw</t>
   </si>
   <si>
-    <t>TCFW_jfw</t>
-  </si>
-  <si>
-    <t>TCFR_jfr</t>
-  </si>
-  <si>
-    <t>TCWR_jwr</t>
-  </si>
-  <si>
     <t>BOC_r</t>
   </si>
   <si>
@@ -231,6 +217,27 @@
   </si>
   <si>
     <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>TCFW_jfw&amp;f=1</t>
+  </si>
+  <si>
+    <t>TCFW_jfw&amp;f=2</t>
+  </si>
+  <si>
+    <t>TCFR_jfr&amp;f=1</t>
+  </si>
+  <si>
+    <t>TCFR_jfr&amp;f=2</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=1</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=2</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=3</t>
   </si>
 </sst>
 </file>
@@ -309,37 +316,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -351,9 +340,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -362,6 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,32 +632,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -676,9 +668,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
+    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -687,9 +679,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
+    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -698,41 +690,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
+    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
+    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B8">
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -742,9 +734,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
+    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0.25</v>
@@ -754,9 +746,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
+    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0.3</v>
@@ -766,9 +758,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
+    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B14">
         <f>B12+B11</f>
@@ -779,9 +771,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
+    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B15">
         <f>B11+B13</f>
@@ -792,9 +784,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
+    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B16">
         <f>B12+B13</f>
@@ -805,9 +797,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B17">
         <f>B11+B12+B13</f>
@@ -818,23 +810,23 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0.15</v>
@@ -848,9 +840,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -864,9 +856,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -880,9 +872,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B23">
         <f>B21+B20</f>
@@ -897,9 +889,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B24">
         <f>B20+B22</f>
@@ -914,9 +906,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B25">
         <f>B21+B22</f>
@@ -931,9 +923,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B26">
         <f>B20+B21+B22</f>
@@ -948,1289 +940,1266 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="E28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D30">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>0.75</v>
+      </c>
+      <c r="H30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I30">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0.45</v>
+      </c>
+      <c r="C31">
+        <v>0.45</v>
+      </c>
+      <c r="D31">
+        <v>0.65</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>0.65</v>
+      </c>
+      <c r="H31">
+        <v>0.45</v>
+      </c>
+      <c r="I31">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>0.5</v>
-      </c>
-      <c r="C30">
-        <v>0.5</v>
-      </c>
-      <c r="D30">
-        <v>0.7</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30">
-        <v>0.7</v>
-      </c>
-      <c r="H30">
-        <v>0.5</v>
-      </c>
-      <c r="I30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C31">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D31">
-        <v>0.75</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31">
-        <v>0.75</v>
-      </c>
-      <c r="H31">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I31">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B32">
-        <v>0.45</v>
+        <f>B30+B29</f>
+        <v>1.05</v>
       </c>
       <c r="C32">
-        <v>0.45</v>
+        <f t="shared" ref="C32:I32" si="3">C30+C29</f>
+        <v>1.05</v>
       </c>
       <c r="D32">
-        <v>0.65</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <v>0.65</v>
-      </c>
-      <c r="H32">
-        <v>0.45</v>
-      </c>
-      <c r="I32">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <f>B31+B30</f>
-        <v>1.05</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:I33" si="3">C31+C30</f>
-        <v>1.05</v>
-      </c>
-      <c r="D33">
         <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33">
+      <c r="E32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
-      <c r="H33">
+      <c r="H32">
         <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
-      <c r="I33">
+      <c r="I32">
         <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <f>B30+B32</f>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f>B29+B31</f>
         <v>0.95</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I34" si="4">C30+C32</f>
+      <c r="C33">
+        <f t="shared" ref="C33:I33" si="4">C29+C31</f>
         <v>0.95</v>
       </c>
-      <c r="D34">
+      <c r="D33">
         <f t="shared" si="4"/>
         <v>1.35</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34">
+      <c r="E33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="4"/>
         <v>1.35</v>
       </c>
-      <c r="H34">
+      <c r="H33">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="I34">
+      <c r="I33">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <f>B31+B32</f>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f>B30+B31</f>
         <v>1</v>
       </c>
-      <c r="C35">
-        <f t="shared" ref="C35:I35" si="5">C31+C32</f>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="5">C30+C31</f>
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D34">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35">
+      <c r="E34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="H35">
+      <c r="H34">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I34">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <f>B30+B31+B32</f>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f>B29+B30+B31</f>
         <v>1.5</v>
       </c>
-      <c r="C36">
-        <f t="shared" ref="C36:I36" si="6">C30+C31+C32</f>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="6">C29+C30+C31</f>
         <v>1.5</v>
       </c>
-      <c r="D36">
+      <c r="D35">
         <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36">
+      <c r="E35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
-      <c r="H36">
+      <c r="H35">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="I36">
+      <c r="I35">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="16" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="12" t="s">
+      <c r="B37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="9" t="s">
+      <c r="F37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>0.9</v>
+      </c>
+      <c r="C38">
+        <v>0.9</v>
+      </c>
+      <c r="D38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E38">
+        <v>1.2</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>1.2</v>
+      </c>
+      <c r="I38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J38">
+        <v>0.9</v>
+      </c>
+      <c r="K38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>0.95</v>
+      </c>
+      <c r="C39">
+        <v>0.95</v>
+      </c>
+      <c r="D39">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E39">
+        <v>1.25</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>1.25</v>
+      </c>
+      <c r="I39">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.95</v>
+      </c>
+      <c r="K39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>0.85</v>
+      </c>
+      <c r="C40">
+        <v>0.85</v>
+      </c>
+      <c r="D40">
+        <v>1.05</v>
+      </c>
+      <c r="E40">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I40">
+        <v>1.05</v>
+      </c>
+      <c r="J40">
+        <v>0.85</v>
+      </c>
+      <c r="K40">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40">
-        <v>0.9</v>
-      </c>
-      <c r="C40">
-        <v>0.9</v>
-      </c>
-      <c r="D40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E40">
-        <v>1.2</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40">
-        <v>1.2</v>
-      </c>
-      <c r="I40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J40">
-        <v>0.9</v>
-      </c>
-      <c r="K40">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="B41">
-        <v>0.95</v>
+        <f>B39+B38</f>
+        <v>1.85</v>
       </c>
       <c r="C41">
-        <v>0.95</v>
+        <f t="shared" ref="C41:K41" si="7">C39+C38</f>
+        <v>1.85</v>
       </c>
       <c r="D41">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E41">
-        <v>1.25</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41">
-        <v>1.25</v>
-      </c>
-      <c r="I41">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J41">
-        <v>0.95</v>
-      </c>
-      <c r="K41">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <v>0.85</v>
-      </c>
-      <c r="C42">
-        <v>0.85</v>
-      </c>
-      <c r="D42">
-        <v>1.05</v>
-      </c>
-      <c r="E42">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I42">
-        <v>1.05</v>
-      </c>
-      <c r="J42">
-        <v>0.85</v>
-      </c>
-      <c r="K42">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43">
-        <f>B41+B40</f>
-        <v>1.85</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:K43" si="7">C41+C40</f>
-        <v>1.85</v>
-      </c>
-      <c r="D43">
         <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="E43">
+      <c r="E41">
         <f t="shared" si="7"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43">
+      <c r="F41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="7"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="I43">
+      <c r="I41">
         <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="J43">
+      <c r="J41">
         <f t="shared" si="7"/>
         <v>1.85</v>
       </c>
-      <c r="K43">
+      <c r="K41">
         <f t="shared" si="7"/>
         <v>1.85</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
-        <f>B40+B42</f>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <f>B38+B40</f>
         <v>1.75</v>
       </c>
-      <c r="C44">
-        <f t="shared" ref="C44:K44" si="8">C40+C42</f>
+      <c r="C42">
+        <f t="shared" ref="C42:K42" si="8">C38+C40</f>
         <v>1.75</v>
       </c>
-      <c r="D44">
+      <c r="D42">
         <f t="shared" si="8"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="E44">
+      <c r="E42">
         <f t="shared" si="8"/>
         <v>2.3499999999999996</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44">
+      <c r="F42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="8"/>
         <v>2.3499999999999996</v>
       </c>
-      <c r="I44">
+      <c r="I42">
         <f t="shared" si="8"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="J44">
+      <c r="J42">
         <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
-      <c r="K44">
+      <c r="K42">
         <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45">
-        <f>B41+B42</f>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <f>B39+B40</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="C45">
-        <f t="shared" ref="C45:K45" si="9">C41+C42</f>
+      <c r="C43">
+        <f t="shared" ref="C43:K43" si="9">C39+C40</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D45">
+      <c r="D43">
         <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E45">
+      <c r="E43">
         <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45">
+      <c r="F43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="I45">
+      <c r="I43">
         <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J45">
+      <c r="J43">
         <f t="shared" si="9"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="K45">
+      <c r="K43">
         <f t="shared" si="9"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46">
-        <f>B40+B41+B42</f>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <f>B38+B39+B40</f>
         <v>2.7</v>
       </c>
-      <c r="C46">
-        <f t="shared" ref="C46:K46" si="10">C40+C41+C42</f>
+      <c r="C44">
+        <f t="shared" ref="C44:K44" si="10">C38+C39+C40</f>
         <v>2.7</v>
       </c>
-      <c r="D46">
+      <c r="D44">
         <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
-      <c r="E46">
+      <c r="E44">
         <f t="shared" si="10"/>
         <v>3.6</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46">
+      <c r="F44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="10"/>
         <v>3.6</v>
       </c>
-      <c r="I46">
+      <c r="I44">
         <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
-      <c r="J46">
+      <c r="J44">
         <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
-      <c r="K46">
+      <c r="K44">
         <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="10" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="14" t="s">
+      <c r="D46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="11" t="s">
+      <c r="E46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="13" t="s">
+      <c r="F46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="15" t="s">
+      <c r="L46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q49" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>0.2</v>
+      </c>
+      <c r="C47">
+        <v>0.2</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>0.3</v>
+      </c>
+      <c r="I47">
+        <v>0.2</v>
+      </c>
+      <c r="J47">
+        <v>0.2</v>
+      </c>
+      <c r="K47">
+        <v>0.3</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47">
+        <v>0.4</v>
+      </c>
+      <c r="O47">
+        <v>0.3</v>
+      </c>
+      <c r="P47">
+        <v>0.2</v>
+      </c>
+      <c r="Q47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.25</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48">
+        <v>0.35</v>
+      </c>
+      <c r="E48">
+        <v>0.45</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>0.35</v>
+      </c>
+      <c r="I48">
+        <v>0.25</v>
+      </c>
+      <c r="J48">
+        <v>0.25</v>
+      </c>
+      <c r="K48">
+        <v>0.35</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>0.45</v>
+      </c>
+      <c r="O48">
+        <v>0.35</v>
+      </c>
+      <c r="P48">
+        <v>0.25</v>
+      </c>
+      <c r="Q48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>0.15</v>
+      </c>
+      <c r="C49">
+        <v>0.15</v>
+      </c>
+      <c r="D49">
+        <v>0.25</v>
+      </c>
+      <c r="E49">
+        <v>0.35</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49">
+        <v>0.35</v>
+      </c>
+      <c r="I49">
+        <v>0.15</v>
+      </c>
+      <c r="J49">
+        <v>0.15</v>
+      </c>
+      <c r="K49">
+        <v>0.25</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <v>0.35</v>
+      </c>
+      <c r="O49">
+        <v>0.25</v>
+      </c>
+      <c r="P49">
+        <v>0.15</v>
+      </c>
+      <c r="Q49">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B50">
-        <v>0.2</v>
+        <f>B48+B47</f>
+        <v>0.45</v>
       </c>
       <c r="C50">
-        <v>0.2</v>
+        <f t="shared" ref="C50:Q50" si="11">C48+C47</f>
+        <v>0.45</v>
       </c>
       <c r="D50">
-        <v>0.3</v>
-      </c>
-      <c r="E50">
-        <v>0.4</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50">
-        <v>0.3</v>
-      </c>
-      <c r="I50">
-        <v>0.2</v>
-      </c>
-      <c r="J50">
-        <v>0.2</v>
-      </c>
-      <c r="K50">
-        <v>0.3</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50">
-        <v>0.4</v>
-      </c>
-      <c r="O50">
-        <v>0.3</v>
-      </c>
-      <c r="P50">
-        <v>0.2</v>
-      </c>
-      <c r="Q50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51">
-        <v>0.25</v>
-      </c>
-      <c r="C51">
-        <v>0.25</v>
-      </c>
-      <c r="D51">
-        <v>0.35</v>
-      </c>
-      <c r="E51">
-        <v>0.45</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51">
-        <v>0.35</v>
-      </c>
-      <c r="I51">
-        <v>0.25</v>
-      </c>
-      <c r="J51">
-        <v>0.25</v>
-      </c>
-      <c r="K51">
-        <v>0.35</v>
-      </c>
-      <c r="L51" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51">
-        <v>0.45</v>
-      </c>
-      <c r="O51">
-        <v>0.35</v>
-      </c>
-      <c r="P51">
-        <v>0.25</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52">
-        <v>0.15</v>
-      </c>
-      <c r="C52">
-        <v>0.15</v>
-      </c>
-      <c r="D52">
-        <v>0.25</v>
-      </c>
-      <c r="E52">
-        <v>0.35</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52">
-        <v>0.35</v>
-      </c>
-      <c r="I52">
-        <v>0.15</v>
-      </c>
-      <c r="J52">
-        <v>0.15</v>
-      </c>
-      <c r="K52">
-        <v>0.25</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N52">
-        <v>0.35</v>
-      </c>
-      <c r="O52">
-        <v>0.25</v>
-      </c>
-      <c r="P52">
-        <v>0.15</v>
-      </c>
-      <c r="Q52">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53">
-        <f>B51+B50</f>
-        <v>0.45</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:Q53" si="11">C51+C50</f>
-        <v>0.45</v>
-      </c>
-      <c r="D53">
         <f t="shared" si="11"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="E53">
+      <c r="E50">
         <f t="shared" si="11"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53">
+      <c r="F50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="11"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="I53">
+      <c r="I50">
         <f t="shared" si="11"/>
         <v>0.45</v>
       </c>
-      <c r="J53">
+      <c r="J50">
         <f t="shared" si="11"/>
         <v>0.45</v>
       </c>
-      <c r="K53">
+      <c r="K50">
         <f t="shared" si="11"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="L53" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N53">
+      <c r="L50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="11"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="O53">
+      <c r="O50">
         <f t="shared" si="11"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="P53">
+      <c r="P50">
         <f t="shared" si="11"/>
         <v>0.45</v>
       </c>
-      <c r="Q53">
+      <c r="Q50">
         <f t="shared" si="11"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54">
-        <f>B50+B52</f>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <f>B47+B49</f>
         <v>0.35</v>
       </c>
-      <c r="C54">
-        <f t="shared" ref="C54:Q54" si="12">C50+C52</f>
+      <c r="C51">
+        <f t="shared" ref="C51:Q51" si="12">C47+C49</f>
         <v>0.35</v>
       </c>
-      <c r="D54">
+      <c r="D51">
         <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E54">
+      <c r="E51">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54">
+      <c r="F51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="12"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="I54">
+      <c r="I51">
         <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
-      <c r="J54">
+      <c r="J51">
         <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
-      <c r="K54">
+      <c r="K51">
         <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54">
+      <c r="L51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="O54">
+      <c r="O51">
         <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="P54">
+      <c r="P51">
         <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
-      <c r="Q54">
+      <c r="Q51">
         <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55">
-        <f>B51+B52</f>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <f>B48+B49</f>
         <v>0.4</v>
       </c>
-      <c r="C55">
-        <f t="shared" ref="C55:Q55" si="13">C51+C52</f>
+      <c r="C52">
+        <f t="shared" ref="C52:Q52" si="13">C48+C49</f>
         <v>0.4</v>
       </c>
-      <c r="D55">
+      <c r="D52">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="E55">
+      <c r="E52">
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55">
+      <c r="F52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
-      <c r="I55">
+      <c r="I52">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="J55">
+      <c r="J52">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="K55">
+      <c r="K52">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="L55" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55">
+      <c r="L52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="O55">
+      <c r="O52">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="P55">
+      <c r="P52">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="Q55">
+      <c r="Q52">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56">
-        <f>B50+B51+B52</f>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <f>B47+B48+B49</f>
         <v>0.6</v>
       </c>
-      <c r="C56">
-        <f t="shared" ref="C56:Q56" si="14">C50+C51+C52</f>
+      <c r="C53">
+        <f t="shared" ref="C53:Q53" si="14">C47+C48+C49</f>
         <v>0.6</v>
       </c>
-      <c r="D56">
+      <c r="D53">
         <f t="shared" si="14"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E56">
+      <c r="E53">
         <f t="shared" si="14"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56">
+      <c r="F53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="14"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I56">
+      <c r="I53">
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="J56">
+      <c r="J53">
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="K56">
+      <c r="K53">
         <f t="shared" si="14"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N56">
+      <c r="L53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="14"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="O56">
+      <c r="O53">
         <f t="shared" si="14"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P56">
+      <c r="P53">
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="Q56">
+      <c r="Q53">
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B59">
         <v>3.5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B60">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B62">
+        <v>50000</v>
+      </c>
+      <c r="C62">
+        <v>50000</v>
+      </c>
+      <c r="D62">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B61">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="B63">
+        <v>40000</v>
+      </c>
+      <c r="C63">
+        <v>40000</v>
+      </c>
+      <c r="D63">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B62">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="B64">
+        <v>45000</v>
+      </c>
+      <c r="C64">
+        <v>45000</v>
+      </c>
+      <c r="D64">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B65">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="C65">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="D65">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66">
-        <v>40000</v>
-      </c>
-      <c r="C66">
-        <v>40000</v>
-      </c>
-      <c r="D66">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67">
-        <v>45000</v>
-      </c>
-      <c r="C67">
-        <v>45000</v>
-      </c>
-      <c r="D67">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>54</v>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>52000</v>
+        <v>30000</v>
       </c>
       <c r="C68">
-        <v>52000</v>
-      </c>
-      <c r="D68">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="2" t="s">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69">
+        <v>20000</v>
+      </c>
+      <c r="C69">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>25000</v>
+      </c>
+      <c r="C70">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <v>32000</v>
+      </c>
+      <c r="C71">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71">
-        <v>30000</v>
-      </c>
-      <c r="C71">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72">
-        <v>20000</v>
-      </c>
-      <c r="C72">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73">
-        <v>25000</v>
-      </c>
-      <c r="C73">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>54</v>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B74">
-        <v>32000</v>
+        <v>500</v>
       </c>
       <c r="C74">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D74">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75">
+        <v>500</v>
+      </c>
+      <c r="C75">
+        <v>500</v>
+      </c>
+      <c r="D75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>500</v>
+      </c>
+      <c r="C76">
+        <v>500</v>
+      </c>
+      <c r="D76">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B77">
@@ -2243,61 +2212,52 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78">
-        <v>500</v>
-      </c>
-      <c r="C78">
-        <v>500</v>
-      </c>
-      <c r="D78">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79">
-        <v>500</v>
-      </c>
-      <c r="C79">
-        <v>500</v>
-      </c>
-      <c r="D79">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>54</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B80">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C80">
-        <v>500</v>
-      </c>
-      <c r="D80">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81">
+        <v>300</v>
+      </c>
+      <c r="C81">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82">
+        <v>300</v>
+      </c>
+      <c r="C82">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B83">
@@ -2307,181 +2267,132 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84">
-        <v>300</v>
-      </c>
-      <c r="C84">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85">
-        <v>300</v>
-      </c>
-      <c r="C85">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>54</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B86">
-        <v>300</v>
+        <v>12.8</v>
       </c>
       <c r="C86">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+        <v>12.8</v>
+      </c>
+      <c r="D86">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87">
+        <v>10.5</v>
+      </c>
+      <c r="C87">
+        <v>10.5</v>
+      </c>
+      <c r="D87">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88">
+        <v>11.5</v>
+      </c>
+      <c r="C88">
+        <v>11.5</v>
+      </c>
+      <c r="D88">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B89">
-        <v>12.8</v>
+        <v>16.8</v>
       </c>
       <c r="C89">
-        <v>12.8</v>
+        <v>16.8</v>
       </c>
       <c r="D89">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90">
-        <v>10.5</v>
-      </c>
-      <c r="C90">
-        <v>10.5</v>
-      </c>
-      <c r="D90">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91">
-        <v>11.5</v>
-      </c>
-      <c r="C91">
-        <v>11.5</v>
-      </c>
-      <c r="D91">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B92">
-        <v>16.8</v>
+        <v>12.5</v>
       </c>
       <c r="C92">
-        <v>16.8</v>
-      </c>
-      <c r="D92">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B95">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="C95">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-      <c r="C96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97">
-        <v>11</v>
-      </c>
-      <c r="C97">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98">
         <v>16.5</v>
       </c>
-      <c r="C98">
-        <v>16.5</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="A38:A39"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2494,25 +2405,25 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -2522,8 +2433,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3">
         <v>5500</v>
@@ -2533,8 +2444,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4500</v>
@@ -2545,20 +2456,20 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
+      <c r="A7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B7">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
+      <c r="A8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B8">
         <v>7000</v>
@@ -2566,28 +2477,28 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
+      <c r="A11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B11">
         <v>14000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
+      <c r="A12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B12">
         <v>14000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
+      <c r="A13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B13">
         <v>14000</v>
@@ -2595,21 +2506,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
+      <c r="A16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -2622,8 +2533,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
+      <c r="A17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -2636,8 +2547,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
+      <c r="A18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -2650,8 +2561,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
+      <c r="A19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -2665,18 +2576,18 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
+      <c r="A22" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -2686,8 +2597,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
+      <c r="A23" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -2697,8 +2608,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
+      <c r="A24" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -2708,8 +2619,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>54</v>
+      <c r="A25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -2731,25 +2642,25 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
         <v>850</v>
@@ -2759,8 +2670,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -2770,8 +2681,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -2782,21 +2693,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
+      <c r="A7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2809,8 +2720,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
+      <c r="A8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B8">
         <v>800</v>
@@ -2823,8 +2734,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
+      <c r="A9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -2838,60 +2749,60 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
+      <c r="A12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
+      <c r="A14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
+      <c r="A15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B15">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B16">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
+      <c r="A17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
+      <c r="A18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2911,25 +2822,25 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2942,8 +2853,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
+      <c r="A3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2957,24 +2868,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2990,8 +2901,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
+      <c r="A7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3008,24 +2919,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
+      <c r="A10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3041,8 +2952,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
+      <c r="A11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3058,8 +2969,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
+      <c r="A12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3076,36 +2987,36 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
+      <c r="A15" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
+      <c r="A16" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
+      <c r="A17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
+      <c r="A18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3124,37 +3035,37 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3179,8 +3090,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3205,8 +3116,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3232,7 +3143,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -3251,28 +3162,28 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -3284,9 +3195,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3298,9 +3209,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3309,8 +3220,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="C5">
         <v>0</v>
       </c>
@@ -3318,8 +3229,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6">
         <v>0</v>
       </c>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cost-Related" sheetId="1" r:id="rId1"/>
@@ -156,18 +156,6 @@
     <t>j=3</t>
   </si>
   <si>
-    <t>j=12</t>
-  </si>
-  <si>
-    <t>j=13</t>
-  </si>
-  <si>
-    <t>j=23</t>
-  </si>
-  <si>
-    <t>j=123</t>
-  </si>
-  <si>
     <t>i=1</t>
   </si>
   <si>
@@ -204,18 +192,6 @@
     <t>r=4</t>
   </si>
   <si>
-    <t>k=12</t>
-  </si>
-  <si>
-    <t>k=13</t>
-  </si>
-  <si>
-    <t>k=23</t>
-  </si>
-  <si>
-    <t>k=123</t>
-  </si>
-  <si>
     <t>&lt;&gt;</t>
   </si>
   <si>
@@ -238,6 +214,30 @@
   </si>
   <si>
     <t>TCWR_jwr&amp;w=3</t>
+  </si>
+  <si>
+    <t>j=7</t>
+  </si>
+  <si>
+    <t>j=6</t>
+  </si>
+  <si>
+    <t>j=4</t>
+  </si>
+  <si>
+    <t>j=5</t>
+  </si>
+  <si>
+    <t>k=5</t>
+  </si>
+  <si>
+    <t>k=7</t>
+  </si>
+  <si>
+    <t>k=4</t>
+  </si>
+  <si>
+    <t>k=6</t>
   </si>
 </sst>
 </file>
@@ -348,10 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,15 +651,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>12000</v>
@@ -716,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <f>B12+B11</f>
@@ -773,7 +773,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <f>B11+B13</f>
@@ -786,7 +786,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <f>B12+B13</f>
@@ -799,7 +799,7 @@
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <f>B11+B12+B13</f>
@@ -815,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
     </row>
     <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <f>B21+B20</f>
@@ -891,7 +891,7 @@
     </row>
     <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <f>B20+B22</f>
@@ -908,7 +908,7 @@
     </row>
     <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <f>B21+B22</f>
@@ -925,7 +925,7 @@
     </row>
     <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <f>B20+B21+B22</f>
@@ -941,32 +941,32 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>53</v>
+      <c r="A28" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>0.7</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>29</v>
@@ -1012,7 +1012,7 @@
         <v>0.75</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
@@ -1041,7 +1041,7 @@
         <v>0.65</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>31</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <f>B30+B29</f>
@@ -1073,10 +1073,10 @@
         <v>1.45</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <f>B29+B31</f>
@@ -1108,10 +1108,10 @@
         <v>1.35</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <f>B30+B31</f>
@@ -1143,10 +1143,10 @@
         <v>1.4</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <f>B29+B30+B31</f>
@@ -1178,10 +1178,10 @@
         <v>2.1</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
@@ -1197,38 +1197,38 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>55</v>
+      <c r="A37" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>56</v>
+      <c r="G37" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>1.2</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>29</v>
@@ -1283,7 +1283,7 @@
         <v>1.25</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>30</v>
@@ -1318,7 +1318,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>31</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <f>B39+B38</f>
@@ -1357,10 +1357,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <f>B38+B40</f>
@@ -1400,10 +1400,10 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H42">
         <f t="shared" si="8"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <f>B39+B40</f>
@@ -1443,10 +1443,10 @@
         <v>2.4</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H43">
         <f t="shared" si="9"/>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <f>B38+B39+B40</f>
@@ -1486,10 +1486,10 @@
         <v>3.6</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H44">
         <f t="shared" si="10"/>
@@ -1509,56 +1509,56 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>57</v>
+      <c r="A46" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>58</v>
+      <c r="G46" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>59</v>
+      <c r="M46" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>0.4</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>29</v>
@@ -1596,7 +1596,7 @@
         <v>0.3</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>29</v>
@@ -1631,7 +1631,7 @@
         <v>0.45</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>30</v>
@@ -1649,7 +1649,7 @@
         <v>0.35</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>30</v>
@@ -1684,7 +1684,7 @@
         <v>0.35</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>31</v>
@@ -1702,7 +1702,7 @@
         <v>0.25</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>31</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <f>B48+B47</f>
@@ -1741,10 +1741,10 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -1763,10 +1763,10 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N50">
         <f t="shared" si="11"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <f>B47+B49</f>
@@ -1806,10 +1806,10 @@
         <v>0.75</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H51">
         <f t="shared" si="12"/>
@@ -1828,10 +1828,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N51">
         <f t="shared" si="12"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <f>B48+B49</f>
@@ -1871,10 +1871,10 @@
         <v>0.8</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H52">
         <f t="shared" si="13"/>
@@ -1893,10 +1893,10 @@
         <v>0.6</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N52">
         <f t="shared" si="13"/>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <f>B47+B48+B49</f>
@@ -1936,10 +1936,10 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="F53" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H53">
         <f t="shared" si="14"/>
@@ -1958,10 +1958,10 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="L53" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="N53">
         <f t="shared" si="14"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B56">
         <v>3.5</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>3.5</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <v>3.5</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B59">
         <v>3.5</v>
@@ -2022,18 +2022,18 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>50000</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B63">
         <v>40000</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>45000</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>52000</v>
@@ -2092,15 +2092,15 @@
         <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>30000</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B69">
         <v>20000</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B70">
         <v>25000</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <v>32000</v>
@@ -2147,18 +2147,18 @@
         <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B74">
         <v>500</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B75">
         <v>500</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B76">
         <v>500</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B77">
         <v>500</v>
@@ -2217,15 +2217,15 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>300</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B81">
         <v>300</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>300</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B83">
         <v>300</v>
@@ -2272,18 +2272,18 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B86">
         <v>12.8</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B87">
         <v>10.5</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B88">
         <v>11.5</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B89">
         <v>16.8</v>
@@ -2342,15 +2342,15 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B92">
         <v>12.5</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B94">
         <v>11</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B95">
         <v>16.5</v>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,15 +2415,15 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>5500</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>4500</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>7000</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>7000</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>14000</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>14000</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>14000</v>
@@ -2509,18 +2509,18 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -2532,9 +2532,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -2546,9 +2546,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -2560,9 +2560,9 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -2574,20 +2574,20 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -2596,9 +2596,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -2607,9 +2607,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -2618,9 +2618,9 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -2639,7 +2639,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,15 +2652,15 @@
         <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>850</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -2696,18 +2696,18 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>800</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -2778,31 +2778,31 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2829,18 +2829,18 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2871,21 +2871,21 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2922,21 +2922,21 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2992,31 +2992,31 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3032,7 +3032,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,21 +3051,21 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3158,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3210,7 +3210,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B4">
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="C5">
         <v>0</v>
       </c>
@@ -3230,7 +3230,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6">
         <v>0</v>
       </c>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="Cost-Related" sheetId="1" r:id="rId1"/>
-    <sheet name="Capacity-Related" sheetId="2" r:id="rId2"/>
-    <sheet name="Inventory-Related" sheetId="3" r:id="rId3"/>
-    <sheet name="Time-Related" sheetId="4" r:id="rId4"/>
-    <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId5"/>
-    <sheet name="Reservation Price Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Metadata" sheetId="7" r:id="rId1"/>
+    <sheet name="Cost-Related" sheetId="1" r:id="rId2"/>
+    <sheet name="Capacity-Related" sheetId="2" r:id="rId3"/>
+    <sheet name="Inventory-Related" sheetId="3" r:id="rId4"/>
+    <sheet name="Time-Related" sheetId="4" r:id="rId5"/>
+    <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId6"/>
+    <sheet name="Reservation Price Parameters" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="73">
   <si>
     <t>VC_if</t>
   </si>
@@ -192,9 +193,6 @@
     <t>r=4</t>
   </si>
   <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
     <t>TCFW_jfw&amp;f=1</t>
   </si>
   <si>
@@ -238,6 +236,48 @@
   </si>
   <si>
     <t>k=6</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>INDEX_METADATA</t>
   </si>
 </sst>
 </file>
@@ -316,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -352,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,10 +673,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +884,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <f>B12+B11</f>
@@ -773,7 +897,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <f>B11+B13</f>
@@ -786,7 +910,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <f>B12+B13</f>
@@ -797,9 +921,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <f>B11+B12+B13</f>
@@ -810,7 +934,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -824,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -840,7 +964,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -856,7 +980,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -872,9 +996,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <f>B21+B20</f>
@@ -889,9 +1013,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <f>B20+B22</f>
@@ -906,9 +1030,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <f>B21+B22</f>
@@ -923,9 +1047,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <f>B20+B21+B22</f>
@@ -940,9 +1064,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
@@ -953,23 +1077,9 @@
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -982,23 +1092,9 @@
       <c r="D29">
         <v>0.7</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29">
-        <v>0.7</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1011,23 +1107,9 @@
       <c r="D30">
         <v>0.75</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30">
-        <v>0.75</v>
-      </c>
-      <c r="H30">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I30">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1040,1355 +1122,1504 @@
       <c r="D31">
         <v>0.65</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31">
-        <v>0.65</v>
-      </c>
-      <c r="H31">
-        <v>0.45</v>
-      </c>
-      <c r="I31">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <f>B30+B29</f>
         <v>1.05</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C30+C29</f>
+        <f t="shared" ref="C32:D32" si="3">C30+C29</f>
         <v>1.05</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>1.45</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>1.05</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B33">
         <f>B29+B31</f>
         <v>0.95</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I33" si="4">C29+C31</f>
+        <f t="shared" ref="C33:D33" si="4">C29+C31</f>
         <v>0.95</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
         <v>1.35</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>1.35</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="4"/>
-        <v>0.95</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <f>B30+B31</f>
         <v>1</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:I34" si="5">C30+C31</f>
+        <f t="shared" ref="C34:D34" si="5">C30+C31</f>
         <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <f>B29+B30+B31</f>
         <v>1.5</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:I35" si="6">C29+C30+C31</f>
+        <f t="shared" ref="C35:D35" si="6">C29+C30+C31</f>
         <v>1.5</v>
       </c>
       <c r="D35">
         <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="6"/>
-        <v>2.1</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B38">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C38">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E38">
-        <v>1.2</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38">
-        <v>1.2</v>
-      </c>
-      <c r="I38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J38">
-        <v>0.9</v>
-      </c>
-      <c r="K38">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B39">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="C39">
-        <v>0.95</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D39">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E39">
-        <v>1.25</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39">
-        <v>1.25</v>
-      </c>
-      <c r="I39">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J39">
-        <v>0.95</v>
-      </c>
-      <c r="K39">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="C40">
-        <v>0.85</v>
+        <v>0.45</v>
       </c>
       <c r="D40">
-        <v>1.05</v>
-      </c>
-      <c r="E40">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I40">
-        <v>1.05</v>
-      </c>
-      <c r="J40">
-        <v>0.85</v>
-      </c>
-      <c r="K40">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <f>B39+B38</f>
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:K41" si="7">C39+C38</f>
-        <v>1.85</v>
+        <f>C39+C38</f>
+        <v>1.05</v>
       </c>
       <c r="D41">
-        <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="7"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="1" t="s">
+        <f>D39+D38</f>
+        <v>1.05</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="7"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>1.85</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="7"/>
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B42">
         <f>B38+B40</f>
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:K42" si="8">C38+C40</f>
-        <v>1.75</v>
+        <f>C38+C40</f>
+        <v>0.95</v>
       </c>
       <c r="D42">
-        <f t="shared" si="8"/>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="8"/>
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="8"/>
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="8"/>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="8"/>
-        <v>1.75</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="8"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <f>D38+D40</f>
+        <v>0.95</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <f>B39+B40</f>
-        <v>1.7999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:K43" si="9">C39+C40</f>
-        <v>1.7999999999999998</v>
+        <f>C39+C40</f>
+        <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="9"/>
-        <v>2.4</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="9"/>
-        <v>2.4</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="9"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="9"/>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <f>D39+D40</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <f>B38+B39+B40</f>
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:K44" si="10">C38+C39+C40</f>
-        <v>2.7</v>
+        <f>C38+C39+C40</f>
+        <v>1.5</v>
       </c>
       <c r="D44">
-        <f t="shared" si="10"/>
-        <v>3.3</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="10"/>
-        <v>3.6</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="10"/>
-        <v>3.6</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="10"/>
-        <v>3.3</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="10"/>
-        <v>2.7</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="10"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <f>D38+D39+D40</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B47">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="C47">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D47">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E47">
-        <v>0.4</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47">
-        <v>0.3</v>
-      </c>
-      <c r="I47">
-        <v>0.2</v>
-      </c>
-      <c r="J47">
-        <v>0.2</v>
-      </c>
-      <c r="K47">
-        <v>0.3</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47">
-        <v>0.4</v>
-      </c>
-      <c r="O47">
-        <v>0.3</v>
-      </c>
-      <c r="P47">
-        <v>0.2</v>
-      </c>
-      <c r="Q47">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B48">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="C48">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="D48">
-        <v>0.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E48">
-        <v>0.45</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48">
-        <v>0.35</v>
-      </c>
-      <c r="I48">
-        <v>0.25</v>
-      </c>
-      <c r="J48">
-        <v>0.25</v>
-      </c>
-      <c r="K48">
-        <v>0.35</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48">
-        <v>0.45</v>
-      </c>
-      <c r="O48">
-        <v>0.35</v>
-      </c>
-      <c r="P48">
-        <v>0.25</v>
-      </c>
-      <c r="Q48">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.25</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B49">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
       <c r="C49">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
       <c r="D49">
-        <v>0.25</v>
+        <v>1.05</v>
       </c>
       <c r="E49">
-        <v>0.35</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49">
-        <v>0.35</v>
-      </c>
-      <c r="I49">
-        <v>0.15</v>
-      </c>
-      <c r="J49">
-        <v>0.15</v>
-      </c>
-      <c r="K49">
-        <v>0.25</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49">
-        <v>0.35</v>
-      </c>
-      <c r="O49">
-        <v>0.25</v>
-      </c>
-      <c r="P49">
-        <v>0.15</v>
-      </c>
-      <c r="Q49">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <f>B48+B47</f>
+        <v>1.85</v>
+      </c>
+      <c r="C50">
+        <f>C48+C47</f>
+        <v>1.85</v>
+      </c>
+      <c r="D50">
+        <f>D48+D47</f>
+        <v>2.25</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:K50" si="7">E48+E47</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <f>B47+B49</f>
+        <v>1.75</v>
+      </c>
+      <c r="C51">
+        <f>C47+C49</f>
+        <v>1.75</v>
+      </c>
+      <c r="D51">
+        <f>D47+D49</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:K51" si="8">E47+E49</f>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f>B48+B49</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="C52">
+        <f>C48+C49</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D52">
+        <f>D48+D49</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:K52" si="9">E48+E49</f>
+        <v>2.4</v>
+      </c>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f>B47+B48+B49</f>
+        <v>2.7</v>
+      </c>
+      <c r="C53">
+        <f>C47+C48+C49</f>
+        <v>2.7</v>
+      </c>
+      <c r="D53">
+        <f>D47+D48+D49</f>
+        <v>3.3</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:K53" si="10">E47+E48+E49</f>
+        <v>3.6</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>1.2</v>
+      </c>
+      <c r="C56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D56">
+        <v>0.9</v>
+      </c>
+      <c r="E56">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>1.25</v>
+      </c>
+      <c r="C57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.95</v>
+      </c>
+      <c r="E57">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C58">
+        <v>1.05</v>
+      </c>
+      <c r="D58">
+        <v>0.85</v>
+      </c>
+      <c r="E58">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <f>B57+B56</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C59">
+        <f>C57+C56</f>
+        <v>2.25</v>
+      </c>
+      <c r="D59">
+        <f>D57+D56</f>
+        <v>1.85</v>
+      </c>
+      <c r="E59">
+        <f>E57+E56</f>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <f>B56+B58</f>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="C60">
+        <f>C56+C58</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="D60">
+        <f>D56+D58</f>
+        <v>1.75</v>
+      </c>
+      <c r="E60">
+        <f>E56+E58</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61">
+        <f>B57+B58</f>
+        <v>2.4</v>
+      </c>
+      <c r="C61">
+        <f>C57+C58</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D61">
+        <f>D57+D58</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E61">
+        <f>E57+E58</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62">
+        <f>B56+B57+B58</f>
+        <v>3.6</v>
+      </c>
+      <c r="C62">
+        <f>C56+C57+C58</f>
+        <v>3.3</v>
+      </c>
+      <c r="D62">
+        <f>D56+D57+D58</f>
+        <v>2.7</v>
+      </c>
+      <c r="E62">
+        <f>E56+E57+E58</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>0.2</v>
+      </c>
+      <c r="C65">
+        <v>0.2</v>
+      </c>
+      <c r="D65">
+        <v>0.3</v>
+      </c>
+      <c r="E65">
+        <v>0.4</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>0.25</v>
+      </c>
+      <c r="C66">
+        <v>0.25</v>
+      </c>
+      <c r="D66">
+        <v>0.35</v>
+      </c>
+      <c r="E66">
         <v>0.45</v>
       </c>
-      <c r="C50">
-        <f t="shared" ref="C50:Q50" si="11">C48+C47</f>
+      <c r="F66" s="9"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>0.15</v>
+      </c>
+      <c r="C67">
+        <v>0.15</v>
+      </c>
+      <c r="D67">
+        <v>0.25</v>
+      </c>
+      <c r="E67">
+        <v>0.35</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68">
+        <f>B66+B65</f>
         <v>0.45</v>
       </c>
-      <c r="D50">
+      <c r="C68">
+        <f t="shared" ref="C68:Q68" si="11">C66+C65</f>
+        <v>0.45</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="11"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="E50">
+      <c r="E68">
         <f t="shared" si="11"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="F68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="11"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="11"/>
-        <v>0.45</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="11"/>
-        <v>0.45</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="11"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="11"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="11"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="11"/>
-        <v>0.45</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="11"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <f>B47+B49</f>
+      <c r="B69">
+        <f>B65+B67</f>
         <v>0.35</v>
       </c>
-      <c r="C51">
-        <f t="shared" ref="C51:Q51" si="12">C47+C49</f>
+      <c r="C69">
+        <f t="shared" ref="C69:Q69" si="12">C65+C67</f>
         <v>0.35</v>
       </c>
-      <c r="D51">
+      <c r="D69">
         <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E51">
+      <c r="E69">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="12"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="12"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="12"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <f>B48+B49</f>
+      <c r="F69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70">
+        <f>B66+B67</f>
         <v>0.4</v>
       </c>
-      <c r="C52">
-        <f t="shared" ref="C52:Q52" si="13">C48+C49</f>
+      <c r="C70">
+        <f t="shared" ref="C70:Q70" si="13">C66+C67</f>
         <v>0.4</v>
       </c>
-      <c r="D52">
+      <c r="D70">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="E52">
+      <c r="E70">
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="13"/>
+      <c r="F70" s="9"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <f>B65+B66+B67</f>
         <v>0.6</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="13"/>
-        <v>0.8</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
+      <c r="C71">
+        <f t="shared" ref="C71:Q71" si="14">C65+C66+C67</f>
         <v>0.6</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <f>B47+B48+B49</f>
-        <v>0.6</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:Q53" si="14">C47+C48+C49</f>
-        <v>0.6</v>
-      </c>
-      <c r="D53">
+      <c r="D71">
         <f t="shared" si="14"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E53">
+      <c r="E71">
         <f t="shared" si="14"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="F71" s="9"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="1"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="1"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>0.3</v>
+      </c>
+      <c r="C74">
+        <v>0.2</v>
+      </c>
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+      <c r="E74">
+        <v>0.3</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="1"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75">
+        <v>0.35</v>
+      </c>
+      <c r="C75">
+        <v>0.25</v>
+      </c>
+      <c r="D75">
+        <v>0.25</v>
+      </c>
+      <c r="E75">
+        <v>0.35</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="1"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76">
+        <v>0.35</v>
+      </c>
+      <c r="C76">
+        <v>0.15</v>
+      </c>
+      <c r="D76">
+        <v>0.15</v>
+      </c>
+      <c r="E76">
+        <v>0.25</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="1"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77">
+        <f>B75+B74</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="C77">
+        <f>C75+C74</f>
+        <v>0.45</v>
+      </c>
+      <c r="D77">
+        <f>D75+D74</f>
+        <v>0.45</v>
+      </c>
+      <c r="E77">
+        <f>E75+E74</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="1"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78">
+        <f>B74+B76</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="C78">
+        <f>C74+C76</f>
+        <v>0.35</v>
+      </c>
+      <c r="D78">
+        <f>D74+D76</f>
+        <v>0.35</v>
+      </c>
+      <c r="E78">
+        <f>E74+E76</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="1"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="14"/>
+      <c r="B79">
+        <f>B75+B76</f>
+        <v>0.7</v>
+      </c>
+      <c r="C79">
+        <f>C75+C76</f>
+        <v>0.4</v>
+      </c>
+      <c r="D79">
+        <f>D75+D76</f>
+        <v>0.4</v>
+      </c>
+      <c r="E79">
+        <f>E75+E76</f>
+        <v>0.6</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="1"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80">
+        <f>B74+B75+B76</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="14"/>
+      <c r="C80">
+        <f>C74+C75+C76</f>
         <v>0.6</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="14"/>
+      <c r="D80">
+        <f>D74+D75+D76</f>
         <v>0.6</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="14"/>
+      <c r="E80">
+        <f>E74+E75+E76</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="1" t="s">
+      <c r="F80" s="9"/>
+      <c r="G80" s="1"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="1"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="1"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>0.4</v>
+      </c>
+      <c r="C83">
+        <v>0.3</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+      <c r="E83">
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="1"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>0.45</v>
+      </c>
+      <c r="C84">
+        <v>0.35</v>
+      </c>
+      <c r="D84">
+        <v>0.25</v>
+      </c>
+      <c r="E84">
+        <v>0.25</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="1"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>0.35</v>
+      </c>
+      <c r="C85">
+        <v>0.25</v>
+      </c>
+      <c r="D85">
+        <v>0.15</v>
+      </c>
+      <c r="E85">
+        <v>0.15</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="1"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86">
+        <f>B84+B83</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="C86">
+        <f>C84+C83</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="D86">
+        <f>D84+D83</f>
+        <v>0.45</v>
+      </c>
+      <c r="E86">
+        <f>E84+E83</f>
+        <v>0.45</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="1"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87">
+        <f>B83+B85</f>
+        <v>0.75</v>
+      </c>
+      <c r="C87">
+        <f>C83+C85</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D87">
+        <f>D83+D85</f>
+        <v>0.35</v>
+      </c>
+      <c r="E87">
+        <f>E83+E85</f>
+        <v>0.35</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="1"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="14"/>
+      <c r="B88">
+        <f>B84+B85</f>
+        <v>0.8</v>
+      </c>
+      <c r="C88">
+        <f>C84+C85</f>
+        <v>0.6</v>
+      </c>
+      <c r="D88">
+        <f>D84+D85</f>
+        <v>0.4</v>
+      </c>
+      <c r="E88">
+        <f>E84+E85</f>
+        <v>0.4</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="1"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89">
+        <f>B83+B84+B85</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="14"/>
+      <c r="C89">
+        <f>C83+C84+C85</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="14"/>
+      <c r="D89">
+        <f>D83+D84+D85</f>
         <v>0.6</v>
       </c>
-      <c r="Q53">
-        <f t="shared" si="14"/>
+      <c r="E89">
+        <f>E83+E84+E85</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="F89" s="9"/>
+      <c r="G89" s="1"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="1"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B56">
+      <c r="B92">
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B57">
+      <c r="B93">
         <v>3.5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B58">
+      <c r="B94">
         <v>3.5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B59">
+      <c r="B95">
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98">
+        <v>50000</v>
+      </c>
+      <c r="C98">
+        <v>50000</v>
+      </c>
+      <c r="D98">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99">
+        <v>40000</v>
+      </c>
+      <c r="C99">
+        <v>40000</v>
+      </c>
+      <c r="D99">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62">
-        <v>50000</v>
-      </c>
-      <c r="C62">
-        <v>50000</v>
-      </c>
-      <c r="D62">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B100">
+        <v>45000</v>
+      </c>
+      <c r="C100">
+        <v>45000</v>
+      </c>
+      <c r="D100">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B63">
-        <v>40000</v>
-      </c>
-      <c r="C63">
-        <v>40000</v>
-      </c>
-      <c r="D63">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64">
-        <v>45000</v>
-      </c>
-      <c r="C64">
-        <v>45000</v>
-      </c>
-      <c r="D64">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B101">
+        <v>52000</v>
+      </c>
+      <c r="C101">
+        <v>52000</v>
+      </c>
+      <c r="D101">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B65">
-        <v>52000</v>
-      </c>
-      <c r="C65">
-        <v>52000</v>
-      </c>
-      <c r="D65">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="B104">
+        <v>30000</v>
+      </c>
+      <c r="C104">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105">
+        <v>20000</v>
+      </c>
+      <c r="C105">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106">
+        <v>25000</v>
+      </c>
+      <c r="C106">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107">
+        <v>32000</v>
+      </c>
+      <c r="C107">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110">
+        <v>500</v>
+      </c>
+      <c r="C110">
+        <v>500</v>
+      </c>
+      <c r="D110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111">
+        <v>500</v>
+      </c>
+      <c r="C111">
+        <v>500</v>
+      </c>
+      <c r="D111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112">
+        <v>500</v>
+      </c>
+      <c r="C112">
+        <v>500</v>
+      </c>
+      <c r="D112">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113">
+        <v>500</v>
+      </c>
+      <c r="C113">
+        <v>500</v>
+      </c>
+      <c r="D113">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116">
+        <v>300</v>
+      </c>
+      <c r="C116">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117">
+        <v>300</v>
+      </c>
+      <c r="C117">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B68">
-        <v>30000</v>
-      </c>
-      <c r="C68">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B118">
+        <v>300</v>
+      </c>
+      <c r="C118">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B69">
-        <v>20000</v>
-      </c>
-      <c r="C69">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70">
-        <v>25000</v>
-      </c>
-      <c r="C70">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B119">
+        <v>300</v>
+      </c>
+      <c r="C119">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B71">
-        <v>32000</v>
-      </c>
-      <c r="C71">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B122">
+        <v>12.8</v>
+      </c>
+      <c r="C122">
+        <v>12.8</v>
+      </c>
+      <c r="D122">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123">
+        <v>10.5</v>
+      </c>
+      <c r="C123">
+        <v>10.5</v>
+      </c>
+      <c r="D123">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B74">
-        <v>500</v>
-      </c>
-      <c r="C74">
-        <v>500</v>
-      </c>
-      <c r="D74">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B124">
+        <v>11.5</v>
+      </c>
+      <c r="C124">
+        <v>11.5</v>
+      </c>
+      <c r="D124">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B75">
-        <v>500</v>
-      </c>
-      <c r="C75">
-        <v>500</v>
-      </c>
-      <c r="D75">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76">
-        <v>500</v>
-      </c>
-      <c r="C76">
-        <v>500</v>
-      </c>
-      <c r="D76">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B125">
+        <v>16.8</v>
+      </c>
+      <c r="C125">
+        <v>16.8</v>
+      </c>
+      <c r="D125">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B77">
-        <v>500</v>
-      </c>
-      <c r="C77">
-        <v>500</v>
-      </c>
-      <c r="D77">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B128">
+        <v>12.5</v>
+      </c>
+      <c r="C128">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B80">
-        <v>300</v>
-      </c>
-      <c r="C80">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B81">
-        <v>300</v>
-      </c>
-      <c r="C81">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82">
-        <v>300</v>
-      </c>
-      <c r="C82">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83">
-        <v>300</v>
-      </c>
-      <c r="C83">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86">
-        <v>12.8</v>
-      </c>
-      <c r="C86">
-        <v>12.8</v>
-      </c>
-      <c r="D86">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87">
-        <v>10.5</v>
-      </c>
-      <c r="C87">
-        <v>10.5</v>
-      </c>
-      <c r="D87">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88">
-        <v>11.5</v>
-      </c>
-      <c r="C88">
-        <v>11.5</v>
-      </c>
-      <c r="D88">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89">
-        <v>16.8</v>
-      </c>
-      <c r="C89">
-        <v>16.8</v>
-      </c>
-      <c r="D89">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92">
-        <v>12.5</v>
-      </c>
-      <c r="C92">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93">
-        <v>10</v>
-      </c>
-      <c r="C93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94">
-        <v>11</v>
-      </c>
-      <c r="C94">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B95">
+      <c r="B131">
         <v>16.5</v>
       </c>
-      <c r="C95">
+      <c r="C131">
         <v>16.5</v>
       </c>
     </row>
@@ -2397,12 +2628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2751,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -2534,7 +2765,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -2548,7 +2779,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -2562,7 +2793,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -2587,7 +2818,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -2598,7 +2829,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -2609,7 +2840,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -2620,7 +2851,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -2634,7 +2865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -2778,7 +3009,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -2786,7 +3017,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -2794,7 +3025,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -2802,7 +3033,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2814,7 +3045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -3027,7 +3258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3051,16 +3282,16 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3154,11 +3385,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Inventory-Related" sheetId="3" r:id="rId4"/>
     <sheet name="Time-Related" sheetId="4" r:id="rId5"/>
     <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId6"/>
-    <sheet name="Reservation Price Parameters" sheetId="6" r:id="rId7"/>
+    <sheet name="Reservation Price Parameters" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="76">
   <si>
     <t>VC_if</t>
   </si>
@@ -133,151 +133,160 @@
     <t>Y_ij</t>
   </si>
   <si>
+    <t>j=1</t>
+  </si>
+  <si>
+    <t>j=2</t>
+  </si>
+  <si>
+    <t>j=3</t>
+  </si>
+  <si>
+    <t>i=1</t>
+  </si>
+  <si>
+    <t>i=2</t>
+  </si>
+  <si>
+    <t>i=3</t>
+  </si>
+  <si>
+    <t>f=1</t>
+  </si>
+  <si>
+    <t>f=2</t>
+  </si>
+  <si>
+    <t>w=1</t>
+  </si>
+  <si>
+    <t>w=2</t>
+  </si>
+  <si>
+    <t>w=3</t>
+  </si>
+  <si>
+    <t>r=1</t>
+  </si>
+  <si>
+    <t>r=2</t>
+  </si>
+  <si>
+    <t>r=3</t>
+  </si>
+  <si>
+    <t>r=4</t>
+  </si>
+  <si>
+    <t>TCFW_jfw&amp;f=1</t>
+  </si>
+  <si>
+    <t>TCFW_jfw&amp;f=2</t>
+  </si>
+  <si>
+    <t>TCFR_jfr&amp;f=1</t>
+  </si>
+  <si>
+    <t>TCFR_jfr&amp;f=2</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=1</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=2</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=3</t>
+  </si>
+  <si>
+    <t>j=7</t>
+  </si>
+  <si>
+    <t>j=6</t>
+  </si>
+  <si>
+    <t>j=4</t>
+  </si>
+  <si>
+    <t>j=5</t>
+  </si>
+  <si>
+    <t>k=5</t>
+  </si>
+  <si>
+    <t>k=7</t>
+  </si>
+  <si>
+    <t>k=4</t>
+  </si>
+  <si>
+    <t>k=6</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>INDEX_METADATA</t>
+  </si>
+  <si>
+    <t>RPMean_i</t>
+  </si>
+  <si>
+    <t>RPStdDev_i</t>
+  </si>
+  <si>
+    <t>Correlation_iI</t>
+  </si>
+  <si>
+    <t>I=1</t>
+  </si>
+  <si>
+    <t>I=2</t>
+  </si>
+  <si>
+    <t>I=3</t>
+  </si>
+  <si>
+    <t>Covariance_iI</t>
+  </si>
+  <si>
     <t>MARKUP</t>
-  </si>
-  <si>
-    <t>Reservation Prices</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std Dev</t>
-  </si>
-  <si>
-    <t>Correlation Coefficient</t>
-  </si>
-  <si>
-    <t>j=1</t>
-  </si>
-  <si>
-    <t>j=2</t>
-  </si>
-  <si>
-    <t>j=3</t>
-  </si>
-  <si>
-    <t>i=1</t>
-  </si>
-  <si>
-    <t>i=2</t>
-  </si>
-  <si>
-    <t>i=3</t>
-  </si>
-  <si>
-    <t>f=1</t>
-  </si>
-  <si>
-    <t>f=2</t>
-  </si>
-  <si>
-    <t>w=1</t>
-  </si>
-  <si>
-    <t>w=2</t>
-  </si>
-  <si>
-    <t>w=3</t>
-  </si>
-  <si>
-    <t>r=1</t>
-  </si>
-  <si>
-    <t>r=2</t>
-  </si>
-  <si>
-    <t>r=3</t>
-  </si>
-  <si>
-    <t>r=4</t>
-  </si>
-  <si>
-    <t>TCFW_jfw&amp;f=1</t>
-  </si>
-  <si>
-    <t>TCFW_jfw&amp;f=2</t>
-  </si>
-  <si>
-    <t>TCFR_jfr&amp;f=1</t>
-  </si>
-  <si>
-    <t>TCFR_jfr&amp;f=2</t>
-  </si>
-  <si>
-    <t>TCWR_jwr&amp;w=1</t>
-  </si>
-  <si>
-    <t>TCWR_jwr&amp;w=2</t>
-  </si>
-  <si>
-    <t>TCWR_jwr&amp;w=3</t>
-  </si>
-  <si>
-    <t>j=7</t>
-  </si>
-  <si>
-    <t>j=6</t>
-  </si>
-  <si>
-    <t>j=4</t>
-  </si>
-  <si>
-    <t>j=5</t>
-  </si>
-  <si>
-    <t>k=5</t>
-  </si>
-  <si>
-    <t>k=7</t>
-  </si>
-  <si>
-    <t>k=4</t>
-  </si>
-  <si>
-    <t>k=6</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>INDEX_METADATA</t>
   </si>
 </sst>
 </file>
@@ -389,10 +398,10 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,77 +684,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -775,15 +786,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -794,7 +805,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -805,7 +816,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -821,7 +832,7 @@
     </row>
     <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -829,7 +840,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>12000</v>
@@ -840,15 +851,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -860,7 +871,7 @@
     </row>
     <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.25</v>
@@ -872,7 +883,7 @@
     </row>
     <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.3</v>
@@ -884,7 +895,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <f>B12+B11</f>
@@ -897,7 +908,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <f>B11+B13</f>
@@ -910,7 +921,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <f>B12+B13</f>
@@ -923,7 +934,7 @@
     </row>
     <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <f>B11+B12+B13</f>
@@ -939,18 +950,18 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.15</v>
@@ -966,7 +977,7 @@
     </row>
     <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -982,7 +993,7 @@
     </row>
     <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -998,7 +1009,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <f>B21+B20</f>
@@ -1015,7 +1026,7 @@
     </row>
     <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <f>B20+B22</f>
@@ -1032,7 +1043,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <f>B21+B22</f>
@@ -1049,7 +1060,7 @@
     </row>
     <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <f>B20+B21+B22</f>
@@ -1066,22 +1077,22 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>0.5</v>
@@ -1096,7 +1107,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>0.55000000000000004</v>
@@ -1111,7 +1122,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>0.45</v>
@@ -1126,7 +1137,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <f>B30+B29</f>
@@ -1144,7 +1155,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <f>B29+B31</f>
@@ -1162,7 +1173,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <f>B30+B31</f>
@@ -1180,7 +1191,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <f>B29+B30+B31</f>
@@ -1203,23 +1214,23 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>0.7</v>
@@ -1235,7 +1246,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>0.75</v>
@@ -1251,7 +1262,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>0.65</v>
@@ -1267,7 +1278,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <f>B39+B38</f>
@@ -1286,7 +1297,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <f>B38+B40</f>
@@ -1305,7 +1316,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <f>B39+B40</f>
@@ -1324,7 +1335,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <f>B38+B39+B40</f>
@@ -1344,25 +1355,25 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0.9</v>
@@ -1380,7 +1391,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>0.95</v>
@@ -1398,7 +1409,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0.85</v>
@@ -1416,7 +1427,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <f>B48+B47</f>
@@ -1431,14 +1442,14 @@
         <v>2.25</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:K50" si="7">E48+E47</f>
+        <f t="shared" ref="E50" si="7">E48+E47</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <f>B47+B49</f>
@@ -1453,14 +1464,14 @@
         <v>2.1500000000000004</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:K51" si="8">E47+E49</f>
+        <f t="shared" ref="E51" si="8">E47+E49</f>
         <v>2.3499999999999996</v>
       </c>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <f>B48+B49</f>
@@ -1475,14 +1486,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52:K52" si="9">E48+E49</f>
+        <f t="shared" ref="E52" si="9">E48+E49</f>
         <v>2.4</v>
       </c>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <f>B47+B48+B49</f>
@@ -1497,31 +1508,31 @@
         <v>3.3</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53:K53" si="10">E47+E48+E49</f>
+        <f t="shared" ref="E53" si="10">E47+E48+E49</f>
         <v>3.6</v>
       </c>
       <c r="F53" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B56">
         <v>1.2</v>
@@ -1538,7 +1549,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>1.25</v>
@@ -1555,7 +1566,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>1.1499999999999999</v>
@@ -1572,7 +1583,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <f>B57+B56</f>
@@ -1593,7 +1604,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B60">
         <f>B56+B58</f>
@@ -1614,7 +1625,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B61">
         <f>B57+B58</f>
@@ -1635,7 +1646,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <f>B56+B57+B58</f>
@@ -1656,26 +1667,26 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F64" s="9"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>0.2</v>
@@ -1694,7 +1705,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>0.25</v>
@@ -1713,7 +1724,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>0.15</v>
@@ -1732,14 +1743,14 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <f>B66+B65</f>
         <v>0.45</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:Q68" si="11">C66+C65</f>
+        <f t="shared" ref="C68:E68" si="11">C66+C65</f>
         <v>0.45</v>
       </c>
       <c r="D68">
@@ -1755,14 +1766,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B69">
         <f>B65+B67</f>
         <v>0.35</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:Q69" si="12">C65+C67</f>
+        <f t="shared" ref="C69:E69" si="12">C65+C67</f>
         <v>0.35</v>
       </c>
       <c r="D69">
@@ -1778,14 +1789,14 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B70">
         <f>B66+B67</f>
         <v>0.4</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:Q70" si="13">C66+C67</f>
+        <f t="shared" ref="C70:E70" si="13">C66+C67</f>
         <v>0.4</v>
       </c>
       <c r="D70">
@@ -1801,14 +1812,14 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B71">
         <f>B65+B66+B67</f>
         <v>0.6</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:Q71" si="14">C65+C66+C67</f>
+        <f t="shared" ref="C71:E71" si="14">C65+C66+C67</f>
         <v>0.6</v>
       </c>
       <c r="D71">
@@ -1831,19 +1842,19 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="1"/>
@@ -1852,7 +1863,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B74">
         <v>0.3</v>
@@ -1873,7 +1884,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B75">
         <v>0.35</v>
@@ -1894,7 +1905,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B76">
         <v>0.35</v>
@@ -1915,7 +1926,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B77">
         <f>B75+B74</f>
@@ -1940,7 +1951,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B78">
         <f>B74+B76</f>
@@ -1965,7 +1976,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B79">
         <f>B75+B76</f>
@@ -1990,7 +2001,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B80">
         <f>B74+B75+B76</f>
@@ -2022,19 +2033,19 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="1"/>
@@ -2043,7 +2054,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B83">
         <v>0.4</v>
@@ -2064,7 +2075,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B84">
         <v>0.45</v>
@@ -2085,7 +2096,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B85">
         <v>0.35</v>
@@ -2106,7 +2117,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B86">
         <f>B84+B83</f>
@@ -2131,7 +2142,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B87">
         <f>B83+B85</f>
@@ -2156,7 +2167,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B88">
         <f>B84+B85</f>
@@ -2181,7 +2192,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B89">
         <f>B83+B84+B85</f>
@@ -2218,7 +2229,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B92">
         <v>3.5</v>
@@ -2226,7 +2237,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B93">
         <v>3.5</v>
@@ -2234,7 +2245,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B94">
         <v>3.5</v>
@@ -2242,7 +2253,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B95">
         <v>3.5</v>
@@ -2253,18 +2264,18 @@
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B98">
         <v>50000</v>
@@ -2278,7 +2289,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B99">
         <v>40000</v>
@@ -2292,7 +2303,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>45000</v>
@@ -2306,7 +2317,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B101">
         <v>52000</v>
@@ -2323,15 +2334,15 @@
         <v>6</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B104">
         <v>30000</v>
@@ -2342,7 +2353,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B105">
         <v>20000</v>
@@ -2353,7 +2364,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B106">
         <v>25000</v>
@@ -2364,7 +2375,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B107">
         <v>32000</v>
@@ -2378,18 +2389,18 @@
         <v>7</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B110">
         <v>500</v>
@@ -2403,7 +2414,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <v>500</v>
@@ -2417,7 +2428,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B112">
         <v>500</v>
@@ -2431,7 +2442,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B113">
         <v>500</v>
@@ -2448,15 +2459,15 @@
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B116">
         <v>300</v>
@@ -2467,7 +2478,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B117">
         <v>300</v>
@@ -2478,7 +2489,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B118">
         <v>300</v>
@@ -2489,7 +2500,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B119">
         <v>300</v>
@@ -2503,18 +2514,18 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B122">
         <v>12.8</v>
@@ -2528,7 +2539,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B123">
         <v>10.5</v>
@@ -2542,7 +2553,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B124">
         <v>11.5</v>
@@ -2556,7 +2567,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B125">
         <v>16.8</v>
@@ -2573,15 +2584,15 @@
         <v>10</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B128">
         <v>12.5</v>
@@ -2592,7 +2603,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B129">
         <v>10</v>
@@ -2603,7 +2614,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B130">
         <v>11</v>
@@ -2614,7 +2625,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B131">
         <v>16.5</v>
@@ -2632,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2646,15 +2657,15 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -2665,7 +2676,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>5500</v>
@@ -2676,7 +2687,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>4500</v>
@@ -2692,7 +2703,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>7000</v>
@@ -2700,7 +2711,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>7000</v>
@@ -2713,7 +2724,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>14000</v>
@@ -2721,7 +2732,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>14000</v>
@@ -2729,7 +2740,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>14000</v>
@@ -2740,18 +2751,18 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -2765,7 +2776,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -2779,7 +2790,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -2793,7 +2804,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -2810,15 +2821,15 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -2829,7 +2840,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -2840,7 +2851,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -2851,7 +2862,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -2883,15 +2894,15 @@
         <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>850</v>
@@ -2902,7 +2913,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -2913,7 +2924,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -2927,18 +2938,18 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2952,7 +2963,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>800</v>
@@ -2966,7 +2977,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -2985,7 +2996,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2993,7 +3004,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3001,7 +3012,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3009,7 +3020,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -3017,7 +3028,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -3025,7 +3036,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -3033,7 +3044,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3050,7 +3061,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A14" sqref="A14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,18 +3071,18 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3085,7 +3096,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3102,21 +3113,21 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3133,7 +3144,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3153,21 +3164,21 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3184,7 +3195,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3201,7 +3212,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3223,7 +3234,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -3231,7 +3242,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3239,7 +3250,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3247,7 +3258,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3262,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,30 +3284,30 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3322,7 +3333,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3348,7 +3359,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3372,9 +3383,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -3387,92 +3398,193 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
         <v>17</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="C5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9390" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -15,8 +15,11 @@
     <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId6"/>
     <sheet name="Reservation Price Parameters" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -59,14 +62,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
   <si>
     <t>VC_if</t>
   </si>
   <si>
-    <t>FC_f</t>
-  </si>
-  <si>
     <t>ICF_jf</t>
   </si>
   <si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>MARKUP</t>
+  </si>
+  <si>
+    <t>FC_if</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>10000000</t>
   </si>
 </sst>
 </file>
@@ -682,81 +691,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="B8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -767,13 +784,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
@@ -781,20 +798,20 @@
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -803,9 +820,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -814,9 +831,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -825,237 +842,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>3000</v>
+      </c>
+      <c r="C8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <f>B12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <f>B11</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C18" si="0">B13</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C17" si="0">B12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.3</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <f>B12+B11</f>
+    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <f>B13+B12</f>
         <v>0.45</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <f>B11+B13</f>
+    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <f>B12+B14</f>
         <v>0.5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <f>B12+B13</f>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <f>B13+B14</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17">
-        <f>B11+B12+B13</f>
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <f>B12+B13+B14</f>
         <v>0.75</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>0.15</v>
-      </c>
-      <c r="C20">
-        <f>B20</f>
-        <v>0.15</v>
-      </c>
-      <c r="D20">
-        <f>B20</f>
-        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C26" si="1">B21</f>
-        <v>0.2</v>
+        <f>B21</f>
+        <v>0.15</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D26" si="2">B21</f>
-        <v>0.2</v>
+        <f>B21</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C27" si="1">B22</f>
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D27" si="2">B22</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>0.25</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23">
-        <f>B21+B20</f>
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <f>B22+B21</f>
         <v>0.35</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24">
-        <f>B20+B22</f>
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <f>B21+B23</f>
         <v>0.4</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f t="shared" si="2"/>
         <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25">
-        <f>B21+B22</f>
-        <v>0.45</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,129 +1086,128 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <f>B20+B21+B22</f>
-        <v>0.6</v>
+        <f>B22+B23</f>
+        <v>0.45</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <f>B21+B22+B23</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>0.5</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
-      </c>
-      <c r="D29">
-        <v>0.7</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D30">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C31">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D31">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <f>B30+B29</f>
+        <v>0.45</v>
+      </c>
+      <c r="C32">
+        <v>0.45</v>
+      </c>
+      <c r="D32">
+        <v>0.65</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <f>B31+B30</f>
         <v>1.05</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="C32:D32" si="3">C30+C29</f>
+      <c r="C33">
+        <f t="shared" ref="C33:D33" si="3">C31+C30</f>
         <v>1.05</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <f>B29+B31</f>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <f>B30+B32</f>
         <v>0.95</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:D33" si="4">C29+C31</f>
+      <c r="C34">
+        <f t="shared" ref="C34:D34" si="4">C30+C32</f>
         <v>0.95</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f t="shared" si="4"/>
         <v>1.35</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34">
-        <f>B30+B31</f>
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:D34" si="5">C30+C31</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
@@ -1194,141 +1216,140 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <f>B29+B30+B31</f>
+        <f>B31+B32</f>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:D35" si="5">C31+C32</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <f>B30+B31+B32</f>
         <v>1.5</v>
       </c>
-      <c r="C35">
-        <f t="shared" ref="C35:D35" si="6">C29+C30+C31</f>
+      <c r="C36">
+        <f t="shared" ref="C36:D36" si="6">C30+C31+C32</f>
         <v>1.5</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="E37" s="9"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38">
-        <v>0.7</v>
-      </c>
-      <c r="C38">
-        <v>0.5</v>
-      </c>
-      <c r="D38">
-        <v>0.5</v>
+      <c r="A38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C39">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D39">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="C40">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D40">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <f>B39+B38</f>
-        <v>1.45</v>
+        <v>0.65</v>
       </c>
       <c r="C41">
-        <f>C39+C38</f>
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="D41">
-        <f>D39+D38</f>
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <f>B38+B40</f>
-        <v>1.35</v>
+        <f>B40+B39</f>
+        <v>1.45</v>
       </c>
       <c r="C42">
-        <f>C38+C40</f>
-        <v>0.95</v>
+        <f>C40+C39</f>
+        <v>1.05</v>
       </c>
       <c r="D42">
-        <f>D38+D40</f>
-        <v>0.95</v>
+        <f>D40+D39</f>
+        <v>1.05</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <f>B39+B40</f>
-        <v>1.4</v>
+        <f>B39+B41</f>
+        <v>1.35</v>
       </c>
       <c r="C43">
-        <f>C39+C40</f>
-        <v>1</v>
+        <f>C39+C41</f>
+        <v>0.95</v>
       </c>
       <c r="D43">
-        <f>D39+D40</f>
-        <v>1</v>
+        <f>D39+D41</f>
+        <v>0.95</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="1"/>
@@ -1338,474 +1359,470 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <f>B38+B39+B40</f>
+        <f>B40+B41</f>
+        <v>1.4</v>
+      </c>
+      <c r="C44">
+        <f>C40+C41</f>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f>D40+D41</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f>B39+B40+B41</f>
         <v>2.1</v>
       </c>
-      <c r="C44">
-        <f>C38+C39+C40</f>
+      <c r="C45">
+        <f>C39+C40+C41</f>
         <v>1.5</v>
       </c>
-      <c r="D44">
-        <f>D38+D39+D40</f>
+      <c r="D45">
+        <f>D39+D40+D41</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>0.9</v>
-      </c>
-      <c r="C47">
-        <v>0.9</v>
-      </c>
-      <c r="D47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E47">
-        <v>1.2</v>
       </c>
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>0.9</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>0.95</v>
+      </c>
+      <c r="C49">
+        <v>0.95</v>
+      </c>
+      <c r="D49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E49">
+        <v>1.25</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B48">
-        <v>0.95</v>
-      </c>
-      <c r="C48">
-        <v>0.95</v>
-      </c>
-      <c r="D48">
+      <c r="B50">
+        <v>0.85</v>
+      </c>
+      <c r="C50">
+        <v>0.85</v>
+      </c>
+      <c r="D50">
+        <v>1.05</v>
+      </c>
+      <c r="E50">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E48">
-        <v>1.25</v>
-      </c>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49">
-        <v>0.85</v>
-      </c>
-      <c r="C49">
-        <v>0.85</v>
-      </c>
-      <c r="D49">
-        <v>1.05</v>
-      </c>
-      <c r="E49">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <f>B49+B48</f>
+        <v>1.85</v>
+      </c>
+      <c r="C51">
+        <f>C49+C48</f>
+        <v>1.85</v>
+      </c>
+      <c r="D51">
+        <f>D49+D48</f>
+        <v>2.25</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="7">E49+E48</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
-        <f>B48+B47</f>
-        <v>1.85</v>
-      </c>
-      <c r="C50">
-        <f>C48+C47</f>
-        <v>1.85</v>
-      </c>
-      <c r="D50">
-        <f>D48+D47</f>
-        <v>2.25</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ref="E50" si="7">E48+E47</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <f>B47+B49</f>
+      <c r="B52">
+        <f>B48+B50</f>
         <v>1.75</v>
       </c>
-      <c r="C51">
-        <f>C47+C49</f>
+      <c r="C52">
+        <f>C48+C50</f>
         <v>1.75</v>
       </c>
-      <c r="D51">
-        <f>D47+D49</f>
+      <c r="D52">
+        <f>D48+D50</f>
         <v>2.1500000000000004</v>
       </c>
-      <c r="E51">
-        <f t="shared" ref="E51" si="8">E47+E49</f>
+      <c r="E52">
+        <f t="shared" ref="E52" si="8">E48+E50</f>
         <v>2.3499999999999996</v>
       </c>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52">
-        <f>B48+B49</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="C52">
-        <f>C48+C49</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="D52">
-        <f>D48+D49</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ref="E52" si="9">E48+E49</f>
-        <v>2.4</v>
-      </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B53">
-        <f>B47+B48+B49</f>
+        <f>B49+B50</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="C53">
+        <f>C49+C50</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D53">
+        <f>D49+D50</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="9">E49+E50</f>
+        <v>2.4</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <f>B48+B49+B50</f>
         <v>2.7</v>
       </c>
-      <c r="C53">
-        <f>C47+C48+C49</f>
+      <c r="C54">
+        <f>C48+C49+C50</f>
         <v>2.7</v>
       </c>
-      <c r="D53">
-        <f>D47+D48+D49</f>
+      <c r="D54">
+        <f>D48+D49+D50</f>
         <v>3.3</v>
       </c>
-      <c r="E53">
-        <f t="shared" ref="E53" si="10">E47+E48+E49</f>
+      <c r="E54">
+        <f t="shared" ref="E54" si="10">E48+E49+E50</f>
         <v>3.6</v>
       </c>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>1.2</v>
+      </c>
+      <c r="C57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.9</v>
+      </c>
+      <c r="E57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B56">
-        <v>1.2</v>
-      </c>
-      <c r="C56">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D56">
-        <v>0.9</v>
-      </c>
-      <c r="E56">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B58">
+        <v>1.25</v>
+      </c>
+      <c r="C58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.95</v>
+      </c>
+      <c r="E58">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B57">
-        <v>1.25</v>
-      </c>
-      <c r="C57">
+      <c r="B59">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D57">
-        <v>0.95</v>
-      </c>
-      <c r="E57">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C58">
+      <c r="C59">
         <v>1.05</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>0.85</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <f>B58+B57</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C60">
+        <f>C58+C57</f>
+        <v>2.25</v>
+      </c>
+      <c r="D60">
+        <f>D58+D57</f>
+        <v>1.85</v>
+      </c>
+      <c r="E60">
+        <f>E58+E57</f>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B59">
-        <f>B57+B56</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C59">
-        <f>C57+C56</f>
-        <v>2.25</v>
-      </c>
-      <c r="D59">
-        <f>D57+D56</f>
-        <v>1.85</v>
-      </c>
-      <c r="E59">
-        <f>E57+E56</f>
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60">
-        <f>B56+B58</f>
+      <c r="B61">
+        <f>B57+B59</f>
         <v>2.3499999999999996</v>
       </c>
-      <c r="C60">
-        <f>C56+C58</f>
+      <c r="C61">
+        <f>C57+C59</f>
         <v>2.1500000000000004</v>
       </c>
-      <c r="D60">
-        <f>D56+D58</f>
+      <c r="D61">
+        <f>D57+D59</f>
         <v>1.75</v>
       </c>
-      <c r="E60">
-        <f>E56+E58</f>
+      <c r="E61">
+        <f>E57+E59</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61">
-        <f>B57+B58</f>
-        <v>2.4</v>
-      </c>
-      <c r="C61">
-        <f>C57+C58</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D61">
-        <f>D57+D58</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="E61">
-        <f>E57+E58</f>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B62">
-        <f>B56+B57+B58</f>
+        <f>B58+B59</f>
+        <v>2.4</v>
+      </c>
+      <c r="C62">
+        <f>C58+C59</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D62">
+        <f>D58+D59</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E62">
+        <f>E58+E59</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <f>B57+B58+B59</f>
         <v>3.6</v>
       </c>
-      <c r="C62">
-        <f>C56+C57+C58</f>
+      <c r="C63">
+        <f>C57+C58+C59</f>
         <v>3.3</v>
       </c>
-      <c r="D62">
-        <f>D56+D57+D58</f>
+      <c r="D63">
+        <f>D57+D58+D59</f>
         <v>2.7</v>
       </c>
-      <c r="E62">
-        <f>E56+E57+E58</f>
+      <c r="E63">
+        <f>E57+E58+E59</f>
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65">
-        <v>0.2</v>
-      </c>
-      <c r="C65">
-        <v>0.2</v>
-      </c>
-      <c r="D65">
-        <v>0.3</v>
-      </c>
-      <c r="E65">
-        <v>0.4</v>
       </c>
       <c r="F65" s="9"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C66">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D66">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E66">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F66" s="9"/>
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C67">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D67">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="E67">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F67" s="9"/>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <f>B66+B65</f>
+        <v>0.15</v>
+      </c>
+      <c r="C68">
+        <v>0.15</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+      <c r="E68">
+        <v>0.35</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69">
+        <f>B67+B66</f>
         <v>0.45</v>
       </c>
-      <c r="C68">
-        <f t="shared" ref="C68:E68" si="11">C66+C65</f>
+      <c r="C69">
+        <f t="shared" ref="C69:E69" si="11">C67+C66</f>
         <v>0.45</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <f t="shared" si="11"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <f t="shared" si="11"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69">
-        <f>B65+B67</f>
+      <c r="F69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <f>B66+B68</f>
         <v>0.35</v>
       </c>
-      <c r="C69">
-        <f t="shared" ref="C69:E69" si="12">C65+C67</f>
+      <c r="C70">
+        <f t="shared" ref="C70:E70" si="12">C66+C68</f>
         <v>0.35</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <f t="shared" si="12"/>
         <v>0.75</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70">
-        <f>B66+B67</f>
-        <v>0.4</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:E70" si="13">C66+C67</f>
-        <v>0.4</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="13"/>
-        <v>0.6</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="13"/>
-        <v>0.8</v>
       </c>
       <c r="F70" s="9"/>
       <c r="L70" s="9"/>
@@ -1815,67 +1832,69 @@
         <v>46</v>
       </c>
       <c r="B71">
-        <f>B65+B66+B67</f>
+        <f>B67+B68</f>
+        <v>0.4</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:E71" si="13">C67+C68</f>
+        <v>0.4</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="C71">
-        <f t="shared" ref="C71:E71" si="14">C65+C66+C67</f>
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72">
+        <f>B66+B67+B68</f>
         <v>0.6</v>
       </c>
-      <c r="D71">
+      <c r="C72">
+        <f t="shared" ref="C72:E72" si="14">C66+C67+C68</f>
+        <v>0.6</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="14"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <f t="shared" si="14"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="1"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1"/>
       <c r="L73" s="9"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74">
-        <v>0.3</v>
-      </c>
-      <c r="C74">
-        <v>0.2</v>
-      </c>
-      <c r="D74">
-        <v>0.2</v>
-      </c>
-      <c r="E74">
-        <v>0.3</v>
+      <c r="A74" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="1"/>
@@ -1884,19 +1903,19 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B75">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E75">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="1"/>
@@ -1905,19 +1924,19 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B76">
         <v>0.35</v>
       </c>
       <c r="C76">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D76">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="E76">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="1"/>
@@ -1926,23 +1945,19 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <f>B75+B74</f>
-        <v>0.64999999999999991</v>
+        <v>0.35</v>
       </c>
       <c r="C77">
-        <f>C75+C74</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D77">
-        <f>D75+D74</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="E77">
-        <f>E75+E74</f>
-        <v>0.64999999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="1"/>
@@ -1951,23 +1966,23 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <f>B74+B76</f>
+        <f>B76+B75</f>
         <v>0.64999999999999991</v>
       </c>
       <c r="C78">
-        <f>C74+C76</f>
-        <v>0.35</v>
+        <f>C76+C75</f>
+        <v>0.45</v>
       </c>
       <c r="D78">
-        <f>D74+D76</f>
-        <v>0.35</v>
+        <f>D76+D75</f>
+        <v>0.45</v>
       </c>
       <c r="E78">
-        <f>E74+E76</f>
-        <v>0.55000000000000004</v>
+        <f>E76+E75</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="1"/>
@@ -1976,23 +1991,23 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79">
-        <f>B75+B76</f>
-        <v>0.7</v>
+        <f>B75+B77</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="C79">
-        <f>C75+C76</f>
-        <v>0.4</v>
+        <f>C75+C77</f>
+        <v>0.35</v>
       </c>
       <c r="D79">
-        <f>D75+D76</f>
-        <v>0.4</v>
+        <f>D75+D77</f>
+        <v>0.35</v>
       </c>
       <c r="E79">
-        <f>E75+E76</f>
-        <v>0.6</v>
+        <f>E75+E77</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="1"/>
@@ -2004,20 +2019,20 @@
         <v>46</v>
       </c>
       <c r="B80">
-        <f>B74+B75+B76</f>
-        <v>0.99999999999999989</v>
+        <f>B76+B77</f>
+        <v>0.7</v>
       </c>
       <c r="C80">
-        <f>C74+C75+C76</f>
+        <f>C76+C77</f>
+        <v>0.4</v>
+      </c>
+      <c r="D80">
+        <f>D76+D77</f>
+        <v>0.4</v>
+      </c>
+      <c r="E80">
+        <f>E76+E77</f>
         <v>0.6</v>
-      </c>
-      <c r="D80">
-        <f>D74+D75+D76</f>
-        <v>0.6</v>
-      </c>
-      <c r="E80">
-        <f>E74+E75+E76</f>
-        <v>0.89999999999999991</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="1"/>
@@ -2025,48 +2040,52 @@
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81">
+        <f>B75+B76+B77</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C81">
+        <f>C75+C76+C77</f>
+        <v>0.6</v>
+      </c>
+      <c r="D81">
+        <f>D75+D76+D77</f>
+        <v>0.6</v>
+      </c>
+      <c r="E81">
+        <f>E75+E76+E77</f>
+        <v>0.89999999999999991</v>
+      </c>
       <c r="F81" s="9"/>
       <c r="G81" s="1"/>
       <c r="L81" s="9"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1"/>
       <c r="L82" s="9"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83">
-        <v>0.4</v>
-      </c>
-      <c r="C83">
-        <v>0.3</v>
-      </c>
-      <c r="D83">
-        <v>0.2</v>
-      </c>
-      <c r="E83">
-        <v>0.2</v>
+      <c r="A83" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="1"/>
@@ -2075,19 +2094,19 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C84">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D84">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E84">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="1"/>
@@ -2096,19 +2115,19 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85">
+        <v>0.45</v>
+      </c>
+      <c r="C85">
         <v>0.35</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>0.25</v>
       </c>
-      <c r="D85">
-        <v>0.15</v>
-      </c>
       <c r="E85">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="1"/>
@@ -2117,23 +2136,19 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B86">
-        <f>B84+B83</f>
-        <v>0.85000000000000009</v>
+        <v>0.35</v>
       </c>
       <c r="C86">
-        <f>C84+C83</f>
-        <v>0.64999999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="D86">
-        <f>D84+D83</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="E86">
-        <f>E84+E83</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="1"/>
@@ -2142,23 +2157,23 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B87">
-        <f>B83+B85</f>
-        <v>0.75</v>
+        <f>B85+B84</f>
+        <v>0.85000000000000009</v>
       </c>
       <c r="C87">
-        <f>C83+C85</f>
-        <v>0.55000000000000004</v>
+        <f>C85+C84</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D87">
-        <f>D83+D85</f>
-        <v>0.35</v>
+        <f>D85+D84</f>
+        <v>0.45</v>
       </c>
       <c r="E87">
-        <f>E83+E85</f>
-        <v>0.35</v>
+        <f>E85+E84</f>
+        <v>0.45</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="1"/>
@@ -2167,23 +2182,23 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88">
-        <f>B84+B85</f>
-        <v>0.8</v>
+        <f>B84+B86</f>
+        <v>0.75</v>
       </c>
       <c r="C88">
-        <f>C84+C85</f>
-        <v>0.6</v>
+        <f>C84+C86</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D88">
-        <f>D84+D85</f>
-        <v>0.4</v>
+        <f>D84+D86</f>
+        <v>0.35</v>
       </c>
       <c r="E88">
-        <f>E84+E85</f>
-        <v>0.4</v>
+        <f>E84+E86</f>
+        <v>0.35</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="1"/>
@@ -2195,20 +2210,20 @@
         <v>46</v>
       </c>
       <c r="B89">
-        <f>B83+B84+B85</f>
-        <v>1.2000000000000002</v>
+        <f>B85+B86</f>
+        <v>0.8</v>
       </c>
       <c r="C89">
-        <f>C83+C84+C85</f>
-        <v>0.89999999999999991</v>
+        <f>C85+C86</f>
+        <v>0.6</v>
       </c>
       <c r="D89">
-        <f>D83+D84+D85</f>
-        <v>0.6</v>
+        <f>D85+D86</f>
+        <v>0.4</v>
       </c>
       <c r="E89">
-        <f>E83+E84+E85</f>
-        <v>0.6</v>
+        <f>E85+E86</f>
+        <v>0.4</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="1"/>
@@ -2216,28 +2231,45 @@
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90">
+        <f>B84+B85+B86</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C90">
+        <f>C84+C85+C86</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D90">
+        <f>D84+D85+D86</f>
+        <v>0.6</v>
+      </c>
+      <c r="E90">
+        <f>E84+E85+E86</f>
+        <v>0.6</v>
+      </c>
       <c r="F90" s="9"/>
       <c r="G90" s="1"/>
       <c r="L90" s="9"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="1"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92">
-        <v>3.5</v>
+      <c r="A92" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93">
         <v>3.5</v>
@@ -2245,7 +2277,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B94">
         <v>3.5</v>
@@ -2253,168 +2285,162 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95">
         <v>3.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98">
-        <v>50000</v>
-      </c>
-      <c r="C98">
-        <v>50000</v>
-      </c>
-      <c r="D98">
-        <v>50000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="C99">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D99">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B100">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C100">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="D100">
-        <v>45000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101">
+        <v>45000</v>
+      </c>
+      <c r="C101">
+        <v>45000</v>
+      </c>
+      <c r="D101">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102">
         <v>52000</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>52000</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>52000</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104">
-        <v>30000</v>
-      </c>
-      <c r="C104">
-        <v>30000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B105">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C105">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B106">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C106">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B107">
+        <v>25000</v>
+      </c>
+      <c r="C107">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108">
         <v>32000</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>32000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110">
-        <v>500</v>
-      </c>
-      <c r="C110">
-        <v>500</v>
-      </c>
-      <c r="D110">
-        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B111">
         <v>500</v>
@@ -2428,7 +2454,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B112">
         <v>500</v>
@@ -2442,7 +2468,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B113">
         <v>500</v>
@@ -2454,31 +2480,34 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114">
+        <v>500</v>
+      </c>
+      <c r="C114">
+        <v>500</v>
+      </c>
+      <c r="D114">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116">
-        <v>300</v>
-      </c>
-      <c r="C116">
-        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B117">
         <v>300</v>
@@ -2489,7 +2518,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B118">
         <v>300</v>
@@ -2500,7 +2529,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B119">
         <v>300</v>
@@ -2509,128 +2538,139 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120">
+        <v>300</v>
+      </c>
+      <c r="C120">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B122">
-        <v>12.8</v>
-      </c>
-      <c r="C122">
-        <v>12.8</v>
-      </c>
-      <c r="D122">
-        <v>12.8</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B123">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="C123">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="D123">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B124">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="C124">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D124">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B125">
+        <v>11.5</v>
+      </c>
+      <c r="C125">
+        <v>11.5</v>
+      </c>
+      <c r="D125">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126">
         <v>16.8</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>16.8</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>16.8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B128">
-        <v>12.5</v>
-      </c>
-      <c r="C128">
-        <v>12.5</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B129">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132">
         <v>16.5</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>16.5</v>
       </c>
     </row>
@@ -2647,25 +2687,25 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -2674,9 +2714,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>5500</v>
@@ -2685,9 +2725,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>4500</v>
@@ -2696,73 +2736,73 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>14000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>14000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>14000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -2774,9 +2814,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -2788,9 +2828,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -2804,7 +2844,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -2818,18 +2858,18 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -2840,7 +2880,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -2851,7 +2891,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -2862,7 +2902,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -2880,29 +2920,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>850</v>
@@ -2911,9 +2951,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -2922,9 +2962,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -2933,23 +2973,23 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2961,9 +3001,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>800</v>
@@ -2975,9 +3015,9 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -2989,38 +3029,38 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -3028,7 +3068,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -3036,7 +3076,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -3044,7 +3084,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3064,25 +3104,25 @@
       <selection activeCell="A14" sqref="A14:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3094,9 +3134,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3108,26 +3148,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3142,9 +3182,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3159,26 +3199,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3193,9 +3233,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3210,9 +3250,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3227,14 +3267,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -3242,7 +3282,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3250,7 +3290,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3258,7 +3298,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3273,41 +3313,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3331,9 +3371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3357,9 +3397,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3383,9 +3423,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -3404,7 +3444,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3412,43 +3452,43 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3456,39 +3496,39 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3500,9 +3540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3514,9 +3554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3530,21 +3570,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3558,7 +3598,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3572,7 +3612,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="80">
   <si>
     <t>VC_if</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>10000000</t>
+  </si>
+  <si>
+    <t>LE1</t>
+  </si>
+  <si>
+    <t>0.999</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,16 +697,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
@@ -774,6 +780,14 @@
       </c>
       <c r="B10" s="12" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +801,7 @@
   <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,11 +916,10 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C12">
-        <f>B12</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -914,11 +927,10 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C18" si="0">B13</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,11 +938,10 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -939,11 +950,11 @@
       </c>
       <c r="B15">
         <f>B13+B12</f>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
+        <f t="shared" ref="C15:C18" si="0">B15</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -952,11 +963,11 @@
       </c>
       <c r="B16">
         <f>B12+B14</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -965,11 +976,11 @@
       </c>
       <c r="B17">
         <f>B13+B14</f>
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,11 +989,11 @@
       </c>
       <c r="B18">
         <f>B12+B13+B14</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,15 +1015,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C21">
-        <f>B21</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <f>B21</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,15 +1029,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C27" si="1">B22</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D27" si="2">B22</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,15 +1043,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,15 +1058,15 @@
       </c>
       <c r="B24">
         <f>B22+B21</f>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <f t="shared" ref="C24:C27" si="1">B24</f>
+        <v>0.45</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.35</v>
+        <f t="shared" ref="D24:D27" si="2">B24</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,15 +1075,15 @@
       </c>
       <c r="B25">
         <f>B21+B23</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1087,15 +1092,15 @@
       </c>
       <c r="B26">
         <f>B22+B23</f>
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,15 +1109,15 @@
       </c>
       <c r="B27">
         <f>B21+B22+B23</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,13 +2573,13 @@
         <v>51</v>
       </c>
       <c r="B123">
-        <v>12.8</v>
+        <v>1.8</v>
       </c>
       <c r="C123">
-        <v>12.8</v>
+        <v>1.8</v>
       </c>
       <c r="D123">
-        <v>12.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,13 +2587,13 @@
         <v>49</v>
       </c>
       <c r="B124">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="C124">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="D124">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,13 +2601,13 @@
         <v>52</v>
       </c>
       <c r="B125">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="C125">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="D125">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,13 +2615,13 @@
         <v>50</v>
       </c>
       <c r="B126">
-        <v>16.8</v>
+        <v>1.8</v>
       </c>
       <c r="C126">
-        <v>16.8</v>
+        <v>1.8</v>
       </c>
       <c r="D126">
-        <v>16.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,10 +2640,10 @@
         <v>51</v>
       </c>
       <c r="B129">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="C129">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +2651,10 @@
         <v>49</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +2662,10 @@
         <v>52</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +2673,10 @@
         <v>50</v>
       </c>
       <c r="B132">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="C132">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3101,7 +3106,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,16 +3175,16 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3187,16 +3192,16 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3277,7 +3282,7 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3285,7 +3290,7 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,7 +3298,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +3306,7 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId6"/>
     <sheet name="Reservation Price Parameters" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="89">
   <si>
     <t>VC_if</t>
   </si>
@@ -290,6 +290,33 @@
   </si>
   <si>
     <t>FC_if</t>
+  </si>
+  <si>
+    <t>Lambda_rt</t>
+  </si>
+  <si>
+    <t>t=1</t>
+  </si>
+  <si>
+    <t>t=2</t>
+  </si>
+  <si>
+    <t>t=3</t>
+  </si>
+  <si>
+    <t>t=4</t>
+  </si>
+  <si>
+    <t>t=5</t>
+  </si>
+  <si>
+    <t>t=6</t>
+  </si>
+  <si>
+    <t>t=7</t>
+  </si>
+  <si>
+    <t>Contingency_k</t>
   </si>
   <si>
     <t>M</t>
@@ -689,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,7 +727,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,18 +803,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -800,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A85" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1023,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1051,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1065,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1079,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1069,7 +1096,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1086,7 +1113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1130,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1120,7 +1147,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1162,7 @@
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1177,7 @@
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1192,7 @@
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1207,7 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1198,7 +1225,7 @@
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1216,7 +1243,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1234,7 +1261,7 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -1252,12 +1279,12 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="E37" s="9"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>39</v>
       </c>
@@ -1273,7 +1300,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1316,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1305,7 +1332,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1348,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1367,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1359,7 +1386,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1378,7 +1405,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1395,10 +1422,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>40</v>
       </c>
@@ -1416,7 +1443,7 @@
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1434,7 +1461,7 @@
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1479,7 @@
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -1470,7 +1497,7 @@
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -1492,7 +1519,7 @@
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -1514,7 +1541,7 @@
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +1563,7 @@
       </c>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -1558,7 +1585,7 @@
       </c>
       <c r="F54" s="9"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -1592,7 +1619,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1636,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -1626,7 +1653,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -1668,7 +1695,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -1689,7 +1716,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1737,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
@@ -1729,7 +1756,7 @@
       <c r="F65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
@@ -1748,7 +1775,7 @@
       <c r="F66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,7 +1794,7 @@
       <c r="F67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -1786,7 +1813,7 @@
       <c r="F68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -1809,7 +1836,7 @@
       <c r="F69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>48</v>
       </c>
@@ -1832,7 +1859,7 @@
       <c r="F70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +1882,7 @@
       <c r="F71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
@@ -1878,14 +1905,14 @@
       <c r="F72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1"/>
       <c r="L73" s="9"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>43</v>
       </c>
@@ -1906,7 +1933,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,7 +1954,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -1948,7 +1975,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +1996,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>47</v>
       </c>
@@ -1994,7 +2021,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>48</v>
       </c>
@@ -2019,7 +2046,7 @@
       <c r="L79" s="9"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>46</v>
       </c>
@@ -2044,7 +2071,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -2069,14 +2096,14 @@
       <c r="L81" s="9"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1"/>
       <c r="L82" s="9"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>44</v>
       </c>
@@ -2097,7 +2124,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2145,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
@@ -2139,7 +2166,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>25</v>
       </c>
@@ -2160,7 +2187,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
@@ -2185,7 +2212,7 @@
       <c r="L87" s="9"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,7 +2237,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2262,7 @@
       <c r="L89" s="9"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>45</v>
       </c>
@@ -2260,19 +2287,19 @@
       <c r="L90" s="9"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1"/>
       <c r="L91" s="9"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +2307,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>35</v>
       </c>
@@ -2288,7 +2315,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>36</v>
       </c>
@@ -2296,7 +2323,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2331,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2318,63 +2345,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B99">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C99">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="D99">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B100">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="C100">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="D100">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B101">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="C101">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="D101">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B102">
-        <v>52000</v>
+        <v>5200</v>
       </c>
       <c r="C102">
-        <v>52000</v>
+        <v>5200</v>
       </c>
       <c r="D102">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2385,51 +2412,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B105">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="C105">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B106">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="C106">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B107">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="C107">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B108">
-        <v>32000</v>
+        <v>3200</v>
       </c>
       <c r="C108">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -2457,7 +2484,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>49</v>
       </c>
@@ -2471,7 +2498,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>52</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>50</v>
       </c>
@@ -2499,7 +2526,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
@@ -2521,7 +2548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>49</v>
       </c>
@@ -2532,7 +2559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>52</v>
       </c>
@@ -2543,7 +2570,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>50</v>
       </c>
@@ -2554,7 +2581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>51</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>49</v>
       </c>
@@ -2688,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2874,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2861,7 +2888,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2872,7 +2899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2883,7 +2910,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2894,7 +2921,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2905,7 +2932,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -3071,7 +3098,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -3079,7 +3106,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3114,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -3285,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3293,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -3443,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3587,7 +3614,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3601,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3627,6 +3654,173 @@
       </c>
       <c r="D19">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>900</v>
+      </c>
+      <c r="D24">
+        <v>950</v>
+      </c>
+      <c r="E24">
+        <v>1100</v>
+      </c>
+      <c r="F24">
+        <v>1200</v>
+      </c>
+      <c r="G24">
+        <v>1300</v>
+      </c>
+      <c r="H24">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>1300</v>
+      </c>
+      <c r="C25">
+        <v>1200</v>
+      </c>
+      <c r="D25">
+        <v>1250</v>
+      </c>
+      <c r="E25">
+        <v>1400</v>
+      </c>
+      <c r="F25">
+        <v>1500</v>
+      </c>
+      <c r="G25">
+        <v>1600</v>
+      </c>
+      <c r="H25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>1100</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1050</v>
+      </c>
+      <c r="E26">
+        <v>1200</v>
+      </c>
+      <c r="F26">
+        <v>1300</v>
+      </c>
+      <c r="G26">
+        <v>1400</v>
+      </c>
+      <c r="H26">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>1200</v>
+      </c>
+      <c r="C27">
+        <v>1100</v>
+      </c>
+      <c r="D27">
+        <v>1150</v>
+      </c>
+      <c r="E27">
+        <v>1300</v>
+      </c>
+      <c r="F27">
+        <v>1400</v>
+      </c>
+      <c r="G27">
+        <v>1500</v>
+      </c>
+      <c r="H27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="Time-Related" sheetId="4" r:id="rId5"/>
     <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId6"/>
     <sheet name="Reservation Price Parameters" sheetId="8" r:id="rId7"/>
+    <sheet name="SP, alpha" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="91">
   <si>
     <t>VC_if</t>
   </si>
@@ -329,6 +330,12 @@
   </si>
   <si>
     <t>0.999</t>
+  </si>
+  <si>
+    <t>SP_jt</t>
+  </si>
+  <si>
+    <t>alpha_jt</t>
   </si>
 </sst>
 </file>
@@ -407,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -444,6 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -827,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView topLeftCell="A7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,12 +1287,12 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="E37" s="9"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>39</v>
       </c>
@@ -1300,7 +1308,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,7 +1324,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1332,7 +1340,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1356,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1375,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1386,7 +1394,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1405,7 +1413,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1422,10 +1430,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1451,7 @@
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +1469,7 @@
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1479,7 +1487,7 @@
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1505,7 @@
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -1519,7 +1527,7 @@
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1549,7 @@
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1563,7 +1571,7 @@
       </c>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -1585,7 +1593,7 @@
       </c>
       <c r="F54" s="9"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1644,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -1695,7 +1703,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
@@ -1737,7 +1745,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
@@ -1756,7 +1764,7 @@
       <c r="F65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1783,7 @@
       <c r="F66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1802,7 @@
       <c r="F67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -1813,7 +1821,7 @@
       <c r="F68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -1836,7 +1844,7 @@
       <c r="F69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>48</v>
       </c>
@@ -1859,7 +1867,7 @@
       <c r="F70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +1890,7 @@
       <c r="F71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
@@ -1905,14 +1913,14 @@
       <c r="F72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1"/>
       <c r="L73" s="9"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>43</v>
       </c>
@@ -1933,7 +1941,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>23</v>
       </c>
@@ -1954,7 +1962,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -1975,7 +1983,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,7 +2004,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>47</v>
       </c>
@@ -2021,7 +2029,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2054,7 @@
       <c r="L79" s="9"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2079,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -2096,14 +2104,14 @@
       <c r="L81" s="9"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1"/>
       <c r="L82" s="9"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2132,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
@@ -2145,7 +2153,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2174,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +2195,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
@@ -2212,7 +2220,7 @@
       <c r="L87" s="9"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>48</v>
       </c>
@@ -2237,7 +2245,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2270,7 @@
       <c r="L89" s="9"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>45</v>
       </c>
@@ -2287,19 +2295,19 @@
       <c r="L90" s="9"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1"/>
       <c r="L91" s="9"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -2307,7 +2315,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>35</v>
       </c>
@@ -2315,7 +2323,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2331,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>52</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>50</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>49</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>52</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -2484,7 +2492,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>49</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>52</v>
       </c>
@@ -2512,7 +2520,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>50</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>49</v>
       </c>
@@ -2559,7 +2567,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>52</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>50</v>
       </c>
@@ -2581,7 +2589,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>51</v>
       </c>
@@ -2609,7 +2617,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>49</v>
       </c>
@@ -2715,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3473,7 +3481,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,7 +3768,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3786,12 +3794,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3807,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3815,12 +3823,521 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
       <c r="B34">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <f>B2/1.05</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f>B3/1.05</f>
+        <v>15.238095238095237</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="0">B4/1.05</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="M5">
+        <f>M2+M3</f>
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <f>SQRT(N2^2+N3^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>24.761904761904759</v>
+      </c>
+      <c r="M6">
+        <f>M2+M4</f>
+        <v>28</v>
+      </c>
+      <c r="N6">
+        <f>SQRT(N2^2+N4^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="M7">
+        <f>M3+M4</f>
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <f>SQRT(N4^2+N3^2)</f>
+        <v>2.0615528128088303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <f>B8/1.05</f>
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <f>SUM(M2:M4)</f>
+        <v>45</v>
+      </c>
+      <c r="N8">
+        <f>SQRT(N2^2+N3^2+N4^2)</f>
+        <v>2.2912878474779199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0.22</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.22</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>0.22</v>
+      </c>
+      <c r="C17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.22</v>
+      </c>
+      <c r="E17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F17">
+        <v>0.22</v>
+      </c>
+      <c r="G17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>VC_if</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>alpha_jt</t>
+  </si>
+  <si>
+    <t>IntegralLimit</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +826,14 @@
       </c>
       <c r="B12" s="12" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -3840,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -727,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,7 +738,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>91</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>VC_if</t>
   </si>
@@ -338,7 +338,7 @@
     <t>alpha_jt</t>
   </si>
   <si>
-    <t>IntegralLimit</t>
+    <t>SPR_jt</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -455,6 +461,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +758,7 @@
     <col min="3" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
@@ -756,7 +766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -764,7 +774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -772,7 +782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -780,7 +790,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -788,7 +798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
@@ -796,7 +806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>54</v>
       </c>
@@ -804,7 +814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
@@ -812,7 +822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>85</v>
       </c>
@@ -820,7 +830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>87</v>
       </c>
@@ -828,12 +838,240 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>91</v>
       </c>
-      <c r="B14">
-        <v>100</v>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="14">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
+        <v>16</v>
+      </c>
+      <c r="D16" s="14">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14">
+        <v>16</v>
+      </c>
+      <c r="G16" s="14">
+        <v>16</v>
+      </c>
+      <c r="H16" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="15">
+        <f>B15+B16</f>
+        <v>30</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" ref="C18:H18" si="0">C15+C16</f>
+        <v>30</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="15">
+        <f>B15+B17</f>
+        <v>26</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" ref="C19:H19" si="1">C15+C17</f>
+        <v>26</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="15">
+        <f>B16+B17</f>
+        <v>28</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" ref="C20:H20" si="2">C16+C17</f>
+        <v>28</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="15">
+        <f>B15+B16+B17</f>
+        <v>42</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" ref="C21:H21" si="3">C15+C16+C17</f>
+        <v>42</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -846,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A27"/>
+    <sheetView topLeftCell="A28" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3365,7 +3603,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,7 +3729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3852,7 +4090,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A10" sqref="A10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -737,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,7 +4061,7 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
         <v>52</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
   <si>
     <t>VC_if</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>SPR_jt</t>
+  </si>
+  <si>
+    <t>#IGNORED</t>
   </si>
 </sst>
 </file>
@@ -3729,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,7 +4064,7 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4072,7 @@
         <v>52</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,10 +4090,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,210 +4385,215 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>79</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H11" t="s">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
+      <c r="C13" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="E13" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G13" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G12">
+      <c r="H13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="I13" s="14">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>0.22</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.22</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.22</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0.3</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.3</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.3</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>0.22</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>0.22</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>0.22</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>0.22</v>
       </c>
     </row>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="7" r:id="rId1"/>
@@ -740,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="465" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="4050"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="7" r:id="rId1"/>
-    <sheet name="Cost-Related" sheetId="1" r:id="rId2"/>
-    <sheet name="Capacity-Related" sheetId="2" r:id="rId3"/>
-    <sheet name="Inventory-Related" sheetId="3" r:id="rId4"/>
-    <sheet name="Time-Related" sheetId="4" r:id="rId5"/>
-    <sheet name="Bundle COmposition and PRicing" sheetId="5" r:id="rId6"/>
-    <sheet name="Reservation Price Parameters" sheetId="8" r:id="rId7"/>
-    <sheet name="SP, alpha" sheetId="9" r:id="rId8"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="Derived Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Cost-Related" sheetId="3" r:id="rId3"/>
+    <sheet name="Capacity-Related" sheetId="4" r:id="rId4"/>
+    <sheet name="Inventory-Related" sheetId="5" r:id="rId5"/>
+    <sheet name="Time-Related" sheetId="6" r:id="rId6"/>
+    <sheet name="Bundle COmposition and PRicing" sheetId="7" r:id="rId7"/>
+    <sheet name="Reservation Price Parameters" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -38,22 +30,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>ERDT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>ERDT:
 Since lower STDU conversion, meaning, bundling can save space</t>
         </r>
       </text>
@@ -63,23 +46,200 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+  <si>
+    <t>SPR_jt</t>
+  </si>
+  <si>
+    <t>t=1</t>
+  </si>
+  <si>
+    <t>t=2</t>
+  </si>
+  <si>
+    <t>t=3</t>
+  </si>
+  <si>
+    <t>t=4</t>
+  </si>
+  <si>
+    <t>t=5</t>
+  </si>
+  <si>
+    <t>t=6</t>
+  </si>
+  <si>
+    <t>t=7</t>
+  </si>
+  <si>
+    <t>j=1</t>
+  </si>
+  <si>
+    <t>j=2</t>
+  </si>
+  <si>
+    <t>j=3</t>
+  </si>
+  <si>
+    <t>j=4</t>
+  </si>
+  <si>
+    <t>j=5</t>
+  </si>
+  <si>
+    <t>j=6</t>
+  </si>
+  <si>
+    <t>j=7</t>
+  </si>
+  <si>
+    <t>alpha_jt</t>
+  </si>
+  <si>
+    <t>SP_jt</t>
+  </si>
+  <si>
+    <t>INDEX_METADATA</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>LE1</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
   <si>
     <t>VC_if</t>
   </si>
   <si>
+    <t>f=1</t>
+  </si>
+  <si>
+    <t>f=2</t>
+  </si>
+  <si>
+    <t>i=1</t>
+  </si>
+  <si>
+    <t>i=2</t>
+  </si>
+  <si>
+    <t>i=3</t>
+  </si>
+  <si>
+    <t>FC_if</t>
+  </si>
+  <si>
     <t>ICF_jf</t>
   </si>
   <si>
     <t>ICW_jw</t>
   </si>
   <si>
+    <t>w=1</t>
+  </si>
+  <si>
+    <t>w=2</t>
+  </si>
+  <si>
+    <t>w=3</t>
+  </si>
+  <si>
+    <t>TCFW_jfw&amp;f=1</t>
+  </si>
+  <si>
+    <t>TCFW_jfw&amp;f=2</t>
+  </si>
+  <si>
+    <t>TCFR_jfr&amp;f=1</t>
+  </si>
+  <si>
+    <t>r=1</t>
+  </si>
+  <si>
+    <t>r=2</t>
+  </si>
+  <si>
+    <t>r=3</t>
+  </si>
+  <si>
+    <t>r=4</t>
+  </si>
+  <si>
+    <t>TCFR_jfr&amp;f=2</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=1</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=2</t>
+  </si>
+  <si>
+    <t>TCWR_jwr&amp;w=3</t>
+  </si>
+  <si>
     <t>BOC_r</t>
   </si>
   <si>
     <t>INTCOSTW_kw</t>
   </si>
   <si>
+    <t>k=4</t>
+  </si>
+  <si>
+    <t>k=5</t>
+  </si>
+  <si>
+    <t>k=6</t>
+  </si>
+  <si>
+    <t>k=7</t>
+  </si>
+  <si>
     <t>INTCOSTF_kf</t>
   </si>
   <si>
@@ -104,12 +264,12 @@
     <t>WCAP_w</t>
   </si>
   <si>
+    <t>BCAPW_kw</t>
+  </si>
+  <si>
     <t>BCAPF_kf</t>
   </si>
   <si>
-    <t>BCAPW_kw</t>
-  </si>
-  <si>
     <t>INITIALINVF_if</t>
   </si>
   <si>
@@ -134,136 +294,7 @@
     <t>Y_ij</t>
   </si>
   <si>
-    <t>j=1</t>
-  </si>
-  <si>
-    <t>j=2</t>
-  </si>
-  <si>
-    <t>j=3</t>
-  </si>
-  <si>
-    <t>i=1</t>
-  </si>
-  <si>
-    <t>i=2</t>
-  </si>
-  <si>
-    <t>i=3</t>
-  </si>
-  <si>
-    <t>f=1</t>
-  </si>
-  <si>
-    <t>f=2</t>
-  </si>
-  <si>
-    <t>w=1</t>
-  </si>
-  <si>
-    <t>w=2</t>
-  </si>
-  <si>
-    <t>w=3</t>
-  </si>
-  <si>
-    <t>r=1</t>
-  </si>
-  <si>
-    <t>r=2</t>
-  </si>
-  <si>
-    <t>r=3</t>
-  </si>
-  <si>
-    <t>r=4</t>
-  </si>
-  <si>
-    <t>TCFW_jfw&amp;f=1</t>
-  </si>
-  <si>
-    <t>TCFW_jfw&amp;f=2</t>
-  </si>
-  <si>
-    <t>TCFR_jfr&amp;f=1</t>
-  </si>
-  <si>
-    <t>TCFR_jfr&amp;f=2</t>
-  </si>
-  <si>
-    <t>TCWR_jwr&amp;w=1</t>
-  </si>
-  <si>
-    <t>TCWR_jwr&amp;w=2</t>
-  </si>
-  <si>
-    <t>TCWR_jwr&amp;w=3</t>
-  </si>
-  <si>
-    <t>j=7</t>
-  </si>
-  <si>
-    <t>j=6</t>
-  </si>
-  <si>
-    <t>j=4</t>
-  </si>
-  <si>
-    <t>j=5</t>
-  </si>
-  <si>
-    <t>k=5</t>
-  </si>
-  <si>
-    <t>k=7</t>
-  </si>
-  <si>
-    <t>k=4</t>
-  </si>
-  <si>
-    <t>k=6</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>INDEX_METADATA</t>
+    <t>MARKUP</t>
   </si>
   <si>
     <t>RPMean_i</t>
@@ -287,68 +318,17 @@
     <t>Covariance_iI</t>
   </si>
   <si>
-    <t>MARKUP</t>
-  </si>
-  <si>
-    <t>FC_if</t>
-  </si>
-  <si>
     <t>Lambda_rt</t>
   </si>
   <si>
-    <t>t=1</t>
-  </si>
-  <si>
-    <t>t=2</t>
-  </si>
-  <si>
-    <t>t=3</t>
-  </si>
-  <si>
-    <t>t=4</t>
-  </si>
-  <si>
-    <t>t=5</t>
-  </si>
-  <si>
-    <t>t=6</t>
-  </si>
-  <si>
-    <t>t=7</t>
-  </si>
-  <si>
     <t>Contingency_k</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>LE1</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>SP_jt</t>
-  </si>
-  <si>
-    <t>alpha_jt</t>
-  </si>
-  <si>
-    <t>SPR_jt</t>
-  </si>
-  <si>
-    <t>#IGNORED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,21 +336,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +374,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -426,11 +387,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -452,22 +410,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,9 +433,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -748,342 +701,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.85546875" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14">
-        <v>16</v>
-      </c>
-      <c r="D16" s="14">
-        <v>16</v>
-      </c>
-      <c r="E16" s="14">
-        <v>16</v>
-      </c>
-      <c r="F16" s="14">
-        <v>16</v>
-      </c>
-      <c r="G16" s="14">
-        <v>16</v>
-      </c>
-      <c r="H16" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="15">
-        <f>B15+B16</f>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="15">
-        <f t="shared" ref="C18:H18" si="0">C15+C16</f>
-        <v>30</v>
-      </c>
-      <c r="D18" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="15">
-        <f>B15+B17</f>
-        <v>26</v>
-      </c>
-      <c r="C19" s="15">
-        <f t="shared" ref="C19:H19" si="1">C15+C17</f>
-        <v>26</v>
-      </c>
-      <c r="D19" s="15">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="E19" s="15">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="G19" s="15">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H19" s="15">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="15">
-        <f>B16+B17</f>
-        <v>28</v>
-      </c>
-      <c r="C20" s="15">
-        <f t="shared" ref="C20:H20" si="2">C16+C17</f>
-        <v>28</v>
-      </c>
-      <c r="D20" s="15">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="15">
-        <f>B15+B16+B17</f>
-        <v>42</v>
-      </c>
-      <c r="C21" s="15">
-        <f t="shared" ref="C21:H21" si="3">C15+C16+C17</f>
-        <v>42</v>
-      </c>
-      <c r="D21" s="15">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H21" s="15">
-        <f t="shared" si="3"/>
-        <v>42</v>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:H5" si="0">B2+B3</f>
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:H6" si="1">B2+B4</f>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:H7" si="2">B3+B4</f>
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:H8" si="3">B2+B3+B4</f>
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.12979321858601289</v>
+      </c>
+      <c r="C11">
+        <v>0.12979321858601289</v>
+      </c>
+      <c r="D11">
+        <v>0.12979321858601289</v>
+      </c>
+      <c r="E11">
+        <v>0.12979321858601289</v>
+      </c>
+      <c r="F11">
+        <v>0.12979321858601289</v>
+      </c>
+      <c r="G11">
+        <v>0.12979321858601289</v>
+      </c>
+      <c r="H11">
+        <v>0.12979321858601289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+      <c r="H12">
+        <v>5.4852076188747712E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+      <c r="C13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+      <c r="E13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+      <c r="F13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+      <c r="G13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+      <c r="H13">
+        <v>7.7522912985139081E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="C14">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="D14">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="E14">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="F14">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="G14">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="H14">
+        <v>0.21033618651713559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="C15">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="D15">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="E15">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="F15">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="G15">
+        <v>0.21033618651713559</v>
+      </c>
+      <c r="H15">
+        <v>0.21033618651713559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.17286561531850331</v>
+      </c>
+      <c r="C16">
+        <v>0.17286561531850331</v>
+      </c>
+      <c r="D16">
+        <v>0.17286561531850331</v>
+      </c>
+      <c r="E16">
+        <v>0.17286561531850331</v>
+      </c>
+      <c r="F16">
+        <v>0.17286561531850331</v>
+      </c>
+      <c r="G16">
+        <v>0.17286561531850331</v>
+      </c>
+      <c r="H16">
+        <v>0.17286561531850331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.14318015986796451</v>
+      </c>
+      <c r="C17">
+        <v>0.14318015986796451</v>
+      </c>
+      <c r="D17">
+        <v>0.14318015986796451</v>
+      </c>
+      <c r="E17">
+        <v>0.14318015986796451</v>
+      </c>
+      <c r="F17">
+        <v>0.14318015986796451</v>
+      </c>
+      <c r="G17">
+        <v>0.14318015986796451</v>
+      </c>
+      <c r="H17">
+        <v>0.14318015986796451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="C20">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="D20">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="E20">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="F20">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="G20">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="H20">
+        <v>13.33333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12">
+        <v>15.238095238095241</v>
+      </c>
+      <c r="C21">
+        <v>15.238095238095241</v>
+      </c>
+      <c r="D21">
+        <v>15.238095238095241</v>
+      </c>
+      <c r="E21">
+        <v>15.238095238095241</v>
+      </c>
+      <c r="F21">
+        <v>15.238095238095241</v>
+      </c>
+      <c r="G21">
+        <v>15.238095238095241</v>
+      </c>
+      <c r="H21">
+        <v>15.238095238095241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12">
+        <v>11.428571428571431</v>
+      </c>
+      <c r="C22">
+        <v>11.428571428571431</v>
+      </c>
+      <c r="D22">
+        <v>11.428571428571431</v>
+      </c>
+      <c r="E22">
+        <v>11.428571428571431</v>
+      </c>
+      <c r="F22">
+        <v>11.428571428571431</v>
+      </c>
+      <c r="G22">
+        <v>11.428571428571431</v>
+      </c>
+      <c r="H22">
+        <v>11.428571428571431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="12">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="C23">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="D23">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="E23">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="F23">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="G23">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="H23">
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="12">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="C24">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="D24">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="E24">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="F24">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="G24">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="H24">
+        <v>24.761904761904759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="12">
+        <v>26.666666666666661</v>
+      </c>
+      <c r="C25">
+        <v>26.666666666666661</v>
+      </c>
+      <c r="D25">
+        <v>26.666666666666661</v>
+      </c>
+      <c r="E25">
+        <v>26.666666666666661</v>
+      </c>
+      <c r="F25">
+        <v>26.666666666666661</v>
+      </c>
+      <c r="G25">
+        <v>26.666666666666661</v>
+      </c>
+      <c r="H25">
+        <v>26.666666666666661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="12">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
@@ -1093,26 +1479,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1121,9 +1507,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1132,9 +1518,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1143,20 +1529,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B7">
         <v>5000</v>
@@ -1165,9 +1551,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
+    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B8">
         <v>3000</v>
@@ -1176,9 +1562,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
+    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -1187,20 +1573,20 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0.15</v>
@@ -1209,9 +1595,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
+    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -1220,9 +1606,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
+    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B14">
         <v>0.25</v>
@@ -1231,75 +1617,75 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
+    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B15">
         <f>B13+B12</f>
         <v>0.35</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C18" si="0">B15</f>
+        <f>B15</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
+    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B16">
         <f>B12+B14</f>
         <v>0.4</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>B16</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B17">
         <f>B13+B14</f>
         <v>0.45</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>B17</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B18">
         <f>B12+B13+B14</f>
         <v>0.6</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>B18</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1311,9 +1697,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -1325,9 +1711,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B23">
         <v>0.3</v>
@@ -1339,92 +1725,92 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B24">
         <f>B22+B21</f>
         <v>0.45</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C27" si="1">B24</f>
+        <f>B24</f>
         <v>0.45</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D27" si="2">B24</f>
+        <f>B24</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B25">
         <f>B21+B23</f>
         <v>0.5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f>B25</f>
         <v>0.5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f>B25</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B26">
         <f>B22+B23</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f>B26</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f>B26</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B27">
         <f>B21+B22+B23</f>
         <v>0.75</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f>B27</f>
         <v>0.75</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f>B27</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -1435,11 +1821,11 @@
       <c r="D30">
         <v>0.7</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B31">
         <v>0.55000000000000004</v>
@@ -1450,11 +1836,11 @@
       <c r="D31">
         <v>0.75</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B32">
         <v>0.45</v>
@@ -1465,104 +1851,104 @@
       <c r="D32">
         <v>0.65</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B33">
         <f>B31+B30</f>
         <v>1.05</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="3">C31+C30</f>
+        <f>C31+C30</f>
         <v>1.05</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f>D31+D30</f>
         <v>1.45</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B34">
         <f>B30+B32</f>
         <v>0.95</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:D34" si="4">C30+C32</f>
+        <f>C30+C32</f>
         <v>0.95</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f>D30+D32</f>
         <v>1.35</v>
       </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B35">
         <f>B31+B32</f>
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="5">C31+C32</f>
+        <f>C31+C32</f>
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f>D31+D32</f>
         <v>1.4</v>
       </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B36">
         <f>B30+B31+B32</f>
         <v>1.5</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="6">C30+C31+C32</f>
+        <f>C30+C31+C32</f>
         <v>1.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="6"/>
+        <f>D30+D31+D32</f>
         <v>2.1</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="1"/>
+      <c r="A37" s="12"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="1"/>
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
+      <c r="A39" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B39">
         <v>0.7</v>
@@ -1573,12 +1959,12 @@
       <c r="D39">
         <v>0.5</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
+      <c r="A40" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B40">
         <v>0.75</v>
@@ -1589,12 +1975,12 @@
       <c r="D40">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>25</v>
+      <c r="A41" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B41">
         <v>0.65</v>
@@ -1605,12 +1991,12 @@
       <c r="D41">
         <v>0.45</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
+      <c r="A42" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B42">
         <f>B40+B39</f>
@@ -1624,12 +2010,12 @@
         <f>D40+D39</f>
         <v>1.05</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
+      <c r="A43" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B43">
         <f>B39+B41</f>
@@ -1643,12 +2029,12 @@
         <f>D39+D41</f>
         <v>0.95</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
+      <c r="A44" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B44">
         <f>B40+B41</f>
@@ -1662,12 +2048,12 @@
         <f>D40+D41</f>
         <v>1</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+      <c r="A45" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B45">
         <f>B39+B40+B41</f>
@@ -1683,29 +2069,29 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="9"/>
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>23</v>
+      <c r="A48" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B48">
         <v>0.9</v>
@@ -1719,11 +2105,11 @@
       <c r="E48">
         <v>1.2</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>24</v>
+      <c r="A49" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B49">
         <v>0.95</v>
@@ -1737,11 +2123,11 @@
       <c r="E49">
         <v>1.25</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>25</v>
+      <c r="A50" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B50">
         <v>0.85</v>
@@ -1755,11 +2141,11 @@
       <c r="E50">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>47</v>
+      <c r="A51" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B51">
         <f>B49+B48</f>
@@ -1774,14 +2160,14 @@
         <v>2.25</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51" si="7">E49+E48</f>
+        <f>E49+E48</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
+      <c r="A52" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B52">
         <f>B48+B50</f>
@@ -1796,14 +2182,14 @@
         <v>2.1500000000000004</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" si="8">E48+E50</f>
+        <f>E48+E50</f>
         <v>2.3499999999999996</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>46</v>
+      <c r="A53" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B53">
         <f>B49+B50</f>
@@ -1818,14 +2204,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53" si="9">E49+E50</f>
+        <f>E49+E50</f>
         <v>2.4</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>45</v>
+      <c r="A54" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B54">
         <f>B48+B49+B50</f>
@@ -1840,31 +2226,31 @@
         <v>3.3</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54" si="10">E48+E49+E50</f>
+        <f>E48+E49+E50</f>
         <v>3.6</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>37</v>
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>23</v>
+      <c r="A57" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B57">
         <v>1.2</v>
@@ -1880,8 +2266,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>24</v>
+      <c r="A58" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B58">
         <v>1.25</v>
@@ -1897,8 +2283,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>25</v>
+      <c r="A59" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B59">
         <v>1.1499999999999999</v>
@@ -1914,8 +2300,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>47</v>
+      <c r="A60" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B60">
         <f>B58+B57</f>
@@ -1935,8 +2321,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>48</v>
+      <c r="A61" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B61">
         <f>B57+B59</f>
@@ -1956,8 +2342,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>46</v>
+      <c r="A62" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B62">
         <f>B58+B59</f>
@@ -1977,8 +2363,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>45</v>
+      <c r="A63" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B63">
         <f>B57+B58+B59</f>
@@ -1998,27 +2384,27 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>23</v>
+      <c r="A66" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B66">
         <v>0.2</v>
@@ -2032,12 +2418,12 @@
       <c r="E66">
         <v>0.4</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="F66" s="8"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>24</v>
+      <c r="A67" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B67">
         <v>0.25</v>
@@ -2051,12 +2437,12 @@
       <c r="E67">
         <v>0.45</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="L67" s="9"/>
+      <c r="F67" s="8"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>25</v>
+      <c r="A68" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.15</v>
@@ -2070,132 +2456,132 @@
       <c r="E68">
         <v>0.35</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="L68" s="9"/>
+      <c r="F68" s="8"/>
+      <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>47</v>
+      <c r="A69" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B69">
         <f>B67+B66</f>
         <v>0.45</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:E69" si="11">C67+C66</f>
+        <f>C67+C66</f>
         <v>0.45</v>
       </c>
       <c r="D69">
-        <f t="shared" si="11"/>
+        <f>D67+D66</f>
         <v>0.64999999999999991</v>
       </c>
       <c r="E69">
-        <f t="shared" si="11"/>
+        <f>E67+E66</f>
         <v>0.85000000000000009</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="L69" s="9"/>
+      <c r="F69" s="8"/>
+      <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>48</v>
+      <c r="A70" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B70">
         <f>B66+B68</f>
         <v>0.35</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:E70" si="12">C66+C68</f>
+        <f>C66+C68</f>
         <v>0.35</v>
       </c>
       <c r="D70">
-        <f t="shared" si="12"/>
+        <f>D66+D68</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E70">
-        <f t="shared" si="12"/>
+        <f>E66+E68</f>
         <v>0.75</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="L70" s="9"/>
+      <c r="F70" s="8"/>
+      <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>46</v>
+      <c r="A71" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B71">
         <f>B67+B68</f>
         <v>0.4</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:E71" si="13">C67+C68</f>
+        <f>C67+C68</f>
         <v>0.4</v>
       </c>
       <c r="D71">
-        <f t="shared" si="13"/>
+        <f>D67+D68</f>
         <v>0.6</v>
       </c>
       <c r="E71">
-        <f t="shared" si="13"/>
+        <f>E67+E68</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="L71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>45</v>
+      <c r="A72" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B72">
         <f>B66+B67+B68</f>
         <v>0.6</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:E72" si="14">C66+C67+C68</f>
+        <f>C66+C67+C68</f>
         <v>0.6</v>
       </c>
       <c r="D72">
-        <f t="shared" si="14"/>
+        <f>D66+D67+D68</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="E72">
-        <f t="shared" si="14"/>
+        <f>E66+E67+E68</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="L72" s="9"/>
+      <c r="F72" s="8"/>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="1"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="1"/>
+      <c r="A73" s="12"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="12"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="1"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="1"/>
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="12"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>23</v>
+      <c r="A75" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B75">
         <v>0.3</v>
@@ -2209,14 +2595,14 @@
       <c r="E75">
         <v>0.3</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="1"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="1"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="12"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>24</v>
+      <c r="A76" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B76">
         <v>0.35</v>
@@ -2230,14 +2616,14 @@
       <c r="E76">
         <v>0.35</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="1"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="1"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="12"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>25</v>
+      <c r="A77" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B77">
         <v>0.35</v>
@@ -2251,14 +2637,14 @@
       <c r="E77">
         <v>0.25</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="1"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="1"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="12"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>47</v>
+      <c r="A78" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B78">
         <f>B76+B75</f>
@@ -2276,14 +2662,14 @@
         <f>E76+E75</f>
         <v>0.64999999999999991</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="1"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="1"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="12"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>48</v>
+      <c r="A79" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B79">
         <f>B75+B77</f>
@@ -2301,14 +2687,14 @@
         <f>E75+E77</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="1"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="1"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="12"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="12"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>46</v>
+      <c r="A80" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B80">
         <f>B76+B77</f>
@@ -2326,14 +2712,14 @@
         <f>E76+E77</f>
         <v>0.6</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="1"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="1"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="12"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>45</v>
+      <c r="A81" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B81">
         <f>B75+B76+B77</f>
@@ -2351,42 +2737,42 @@
         <f>E75+E76+E77</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="1"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="1"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="12"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="1"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="1"/>
+      <c r="A82" s="12"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="12"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="12"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="1"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="1"/>
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="12"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>23</v>
+      <c r="A84" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B84">
         <v>0.4</v>
@@ -2400,14 +2786,14 @@
       <c r="E84">
         <v>0.2</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="1"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="1"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="12"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>24</v>
+      <c r="A85" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B85">
         <v>0.45</v>
@@ -2421,14 +2807,14 @@
       <c r="E85">
         <v>0.25</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="1"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="1"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="12"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>25</v>
+      <c r="A86" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B86">
         <v>0.35</v>
@@ -2442,14 +2828,14 @@
       <c r="E86">
         <v>0.15</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="1"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="1"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="12"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>47</v>
+      <c r="A87" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B87">
         <f>B85+B84</f>
@@ -2467,14 +2853,14 @@
         <f>E85+E84</f>
         <v>0.45</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="1"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="1"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="12"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="12"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>48</v>
+      <c r="A88" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B88">
         <f>B84+B86</f>
@@ -2492,14 +2878,14 @@
         <f>E84+E86</f>
         <v>0.35</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="1"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="1"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="12"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>46</v>
+      <c r="A89" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B89">
         <f>B85+B86</f>
@@ -2517,14 +2903,14 @@
         <f>E85+E86</f>
         <v>0.4</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="1"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="1"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="12"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>45</v>
+      <c r="A90" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B90">
         <f>B84+B85+B86</f>
@@ -2542,50 +2928,50 @@
         <f>E84+E85+E86</f>
         <v>0.6</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="1"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="1"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="12"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="1"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="1"/>
+      <c r="A91" s="12"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="12"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="12"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>34</v>
+      <c r="A93" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B93">
         <v>3.5</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>35</v>
+      <c r="A94" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B94">
         <v>3.5</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>36</v>
+      <c r="A95" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B95">
         <v>3.5</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>37</v>
+      <c r="A96" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B96">
         <v>3.5</v>
@@ -2593,21 +2979,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>51</v>
+      <c r="A99" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B99">
         <v>5000</v>
@@ -2620,8 +3006,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>49</v>
+      <c r="A100" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B100">
         <v>4000</v>
@@ -2634,8 +3020,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>52</v>
+      <c r="A101" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B101">
         <v>4500</v>
@@ -2648,8 +3034,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>50</v>
+      <c r="A102" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B102">
         <v>5200</v>
@@ -2663,18 +3049,18 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>51</v>
+      <c r="A105" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B105">
         <v>3000</v>
@@ -2684,8 +3070,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>49</v>
+      <c r="A106" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B106">
         <v>2000</v>
@@ -2695,8 +3081,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>52</v>
+      <c r="A107" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B107">
         <v>2500</v>
@@ -2706,8 +3092,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>50</v>
+      <c r="A108" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B108">
         <v>3200</v>
@@ -2718,21 +3104,21 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>51</v>
+      <c r="A111" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B111">
         <v>500</v>
@@ -2745,8 +3131,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>49</v>
+      <c r="A112" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B112">
         <v>500</v>
@@ -2759,8 +3145,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>52</v>
+      <c r="A113" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B113">
         <v>500</v>
@@ -2773,8 +3159,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>50</v>
+      <c r="A114" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B114">
         <v>500</v>
@@ -2788,18 +3174,18 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>51</v>
+      <c r="A117" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B117">
         <v>300</v>
@@ -2809,8 +3195,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>49</v>
+      <c r="A118" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B118">
         <v>300</v>
@@ -2820,8 +3206,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>52</v>
+      <c r="A119" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B119">
         <v>300</v>
@@ -2831,8 +3217,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>50</v>
+      <c r="A120" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B120">
         <v>300</v>
@@ -2843,21 +3229,21 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>51</v>
+      <c r="A123" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B123">
         <v>1.8</v>
@@ -2870,8 +3256,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>49</v>
+      <c r="A124" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B124">
         <v>1.5</v>
@@ -2884,8 +3270,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>52</v>
+      <c r="A125" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B125">
         <v>2.5</v>
@@ -2898,8 +3284,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>50</v>
+      <c r="A126" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B126">
         <v>1.8</v>
@@ -2913,18 +3299,18 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>51</v>
+      <c r="A129" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B129">
         <v>1.5</v>
@@ -2934,8 +3320,8 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>49</v>
+      <c r="A130" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2945,8 +3331,8 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>52</v>
+      <c r="A131" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2956,8 +3342,8 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>50</v>
+      <c r="A132" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B132">
         <v>1.5</v>
@@ -2971,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -2981,23 +3367,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -3006,9 +3392,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
         <v>5500</v>
@@ -3017,9 +3403,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>4500</v>
@@ -3028,73 +3414,73 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B7">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B8">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B11">
         <v>14000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B12">
         <v>14000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B13">
         <v>14000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
+      <c r="A16" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -3107,8 +3493,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
+      <c r="A17" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -3121,8 +3507,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
+      <c r="A18" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -3135,8 +3521,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
+      <c r="A19" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -3150,18 +3536,18 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
+      <c r="A22" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -3171,8 +3557,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
+      <c r="A23" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -3182,8 +3568,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
+      <c r="A24" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -3193,8 +3579,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
+      <c r="A25" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -3208,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3218,23 +3604,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
         <v>850</v>
@@ -3243,9 +3629,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -3254,9 +3640,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -3265,23 +3651,23 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -3293,9 +3679,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B8">
         <v>800</v>
@@ -3307,9 +3693,9 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -3321,62 +3707,62 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B15">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
+      <c r="A16" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B16">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
+      <c r="A17" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
+      <c r="A18" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3388,7 +3774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -3398,23 +3784,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3426,9 +3812,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3440,26 +3826,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3474,9 +3860,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3491,26 +3877,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3525,9 +3911,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3542,9 +3928,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3559,38 +3945,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
+      <c r="A16" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
+      <c r="A17" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
+      <c r="A18" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3601,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3611,35 +3997,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3663,9 +4049,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3689,9 +4075,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3715,9 +4101,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -3728,7 +4114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -3738,89 +4124,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>69</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3832,9 +4218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3846,9 +4232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3860,23 +4246,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3888,9 +4274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3902,9 +4288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3916,35 +4302,35 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -3968,9 +4354,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>1300</v>
@@ -3994,9 +4380,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>1100</v>
@@ -4022,7 +4408,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>1200</v>
@@ -4048,12 +4434,12 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4061,7 +4447,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4069,7 +4455,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4077,524 +4463,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <f>B2/1.05</f>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <f>B3/1.05</f>
-        <v>15.238095238095237</v>
-      </c>
-      <c r="M3">
-        <v>17</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J7" si="0">B4/1.05</f>
-        <v>11.428571428571429</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="N4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="M5">
-        <f>M2+M3</f>
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <f>SQRT(N2^2+N3^2)</f>
-        <v>2.2360679774997898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>26</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>24.761904761904759</v>
-      </c>
-      <c r="M6">
-        <f>M2+M4</f>
-        <v>28</v>
-      </c>
-      <c r="N6">
-        <f>SQRT(N2^2+N4^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>26.666666666666664</v>
-      </c>
-      <c r="M7">
-        <f>M3+M4</f>
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <f>SQRT(N4^2+N3^2)</f>
-        <v>2.0615528128088303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>42</v>
-      </c>
-      <c r="H8">
-        <v>42</v>
-      </c>
-      <c r="J8">
-        <f>B8/1.05</f>
-        <v>40</v>
-      </c>
-      <c r="M8">
-        <f>SUM(M2:M4)</f>
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <f>SQRT(N2^2+N3^2+N4^2)</f>
-        <v>2.2912878474779199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15">
-        <v>0.22</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.22</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.22</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0.3</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>0.22</v>
-      </c>
-      <c r="D18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E18">
-        <v>0.22</v>
-      </c>
-      <c r="F18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G18">
-        <v>0.22</v>
-      </c>
-      <c r="H18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I18">
-        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/minlp/Parameters.xlsx
+++ b/minlp/Parameters.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="4050"/>
+    <workbookView xWindow="510" yWindow="510" windowWidth="14055" windowHeight="4050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="Derived Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Derived Data" sheetId="2" r:id="rId2"/>
     <sheet name="Cost-Related" sheetId="3" r:id="rId3"/>
     <sheet name="Capacity-Related" sheetId="4" r:id="rId4"/>
     <sheet name="Inventory-Related" sheetId="5" r:id="rId5"/>
@@ -46,7 +46,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="90">
+  <si>
+    <t>INDEX_METADATA</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
   <si>
     <t>SPR_jt</t>
   </si>
@@ -91,54 +133,6 @@
   </si>
   <si>
     <t>j=7</t>
-  </si>
-  <si>
-    <t>alpha_jt</t>
-  </si>
-  <si>
-    <t>SP_jt</t>
-  </si>
-  <si>
-    <t>INDEX_METADATA</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>j</t>
   </si>
   <si>
     <t>M</t>
@@ -701,98 +695,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.85546875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="10"/>
+    <col min="3" max="16" width="8.85546875" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B14">
+        <f t="shared" ref="B14:H14" si="0">B11+B12</f>
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B15">
+        <f t="shared" ref="B15:H15" si="1">B11+B13</f>
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B16">
+        <f t="shared" ref="B16:H16" si="2">B12+B13</f>
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:H17" si="3">B11+B12+B13</f>
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -805,663 +1035,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
+      <c r="A2" s="12"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
+      <c r="A3" s="12"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
+      <c r="A4" s="12"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ref="B5:H5" si="0">B2+B3</f>
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="A5" s="12"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6:H6" si="1">B2+B4</f>
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
+      <c r="A6" s="12"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:H7" si="2">B3+B4</f>
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8:H8" si="3">B2+B3+B4</f>
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0.12979321858601289</v>
-      </c>
-      <c r="C11">
-        <v>0.12979321858601289</v>
-      </c>
-      <c r="D11">
-        <v>0.12979321858601289</v>
-      </c>
-      <c r="E11">
-        <v>0.12979321858601289</v>
-      </c>
-      <c r="F11">
-        <v>0.12979321858601289</v>
-      </c>
-      <c r="G11">
-        <v>0.12979321858601289</v>
-      </c>
-      <c r="H11">
-        <v>0.12979321858601289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-      <c r="C12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-      <c r="D12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-      <c r="E12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-      <c r="F12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-      <c r="G12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-      <c r="H12">
-        <v>5.4852076188747712E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-      <c r="C13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-      <c r="D13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-      <c r="E13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-      <c r="F13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-      <c r="G13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-      <c r="H13">
-        <v>7.7522912985139081E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="C14">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="D14">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="E14">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="F14">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="G14">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="H14">
-        <v>0.21033618651713559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="C15">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="D15">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="E15">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="F15">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="G15">
-        <v>0.21033618651713559</v>
-      </c>
-      <c r="H15">
-        <v>0.21033618651713559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>0.17286561531850331</v>
-      </c>
-      <c r="C16">
-        <v>0.17286561531850331</v>
-      </c>
-      <c r="D16">
-        <v>0.17286561531850331</v>
-      </c>
-      <c r="E16">
-        <v>0.17286561531850331</v>
-      </c>
-      <c r="F16">
-        <v>0.17286561531850331</v>
-      </c>
-      <c r="G16">
-        <v>0.17286561531850331</v>
-      </c>
-      <c r="H16">
-        <v>0.17286561531850331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>0.14318015986796451</v>
-      </c>
-      <c r="C17">
-        <v>0.14318015986796451</v>
-      </c>
-      <c r="D17">
-        <v>0.14318015986796451</v>
-      </c>
-      <c r="E17">
-        <v>0.14318015986796451</v>
-      </c>
-      <c r="F17">
-        <v>0.14318015986796451</v>
-      </c>
-      <c r="G17">
-        <v>0.14318015986796451</v>
-      </c>
-      <c r="H17">
-        <v>0.14318015986796451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="C20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="D20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="E20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="F20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="G20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="H20">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="12">
-        <v>15.238095238095241</v>
-      </c>
-      <c r="C21">
-        <v>15.238095238095241</v>
-      </c>
-      <c r="D21">
-        <v>15.238095238095241</v>
-      </c>
-      <c r="E21">
-        <v>15.238095238095241</v>
-      </c>
-      <c r="F21">
-        <v>15.238095238095241</v>
-      </c>
-      <c r="G21">
-        <v>15.238095238095241</v>
-      </c>
-      <c r="H21">
-        <v>15.238095238095241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="12">
-        <v>11.428571428571431</v>
-      </c>
-      <c r="C22">
-        <v>11.428571428571431</v>
-      </c>
-      <c r="D22">
-        <v>11.428571428571431</v>
-      </c>
-      <c r="E22">
-        <v>11.428571428571431</v>
-      </c>
-      <c r="F22">
-        <v>11.428571428571431</v>
-      </c>
-      <c r="G22">
-        <v>11.428571428571431</v>
-      </c>
-      <c r="H22">
-        <v>11.428571428571431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="12">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="C23">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="D23">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="E23">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="F23">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="G23">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="H23">
-        <v>28.571428571428569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="12">
-        <v>24.761904761904759</v>
-      </c>
-      <c r="C24">
-        <v>24.761904761904759</v>
-      </c>
-      <c r="D24">
-        <v>24.761904761904759</v>
-      </c>
-      <c r="E24">
-        <v>24.761904761904759</v>
-      </c>
-      <c r="F24">
-        <v>24.761904761904759</v>
-      </c>
-      <c r="G24">
-        <v>24.761904761904759</v>
-      </c>
-      <c r="H24">
-        <v>24.761904761904759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="12">
-        <v>26.666666666666661</v>
-      </c>
-      <c r="C25">
-        <v>26.666666666666661</v>
-      </c>
-      <c r="D25">
-        <v>26.666666666666661</v>
-      </c>
-      <c r="E25">
-        <v>26.666666666666661</v>
-      </c>
-      <c r="F25">
-        <v>26.666666666666661</v>
-      </c>
-      <c r="G25">
-        <v>26.666666666666661</v>
-      </c>
-      <c r="H25">
-        <v>26.666666666666661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="12">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>40</v>
-      </c>
-      <c r="D26">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
-      <c r="F26">
-        <v>40</v>
-      </c>
-      <c r="G26">
-        <v>40</v>
-      </c>
-      <c r="H26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
     </row>
   </sheetData>
@@ -1487,18 +1165,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1509,7 +1187,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1520,7 +1198,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1531,18 +1209,18 @@
     </row>
     <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>5000</v>
@@ -1553,7 +1231,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>3000</v>
@@ -1564,7 +1242,7 @@
     </row>
     <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -1575,18 +1253,18 @@
     </row>
     <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0.15</v>
@@ -1597,7 +1275,7 @@
     </row>
     <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -1608,7 +1286,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0.25</v>
@@ -1619,7 +1297,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <f>B13+B12</f>
@@ -1632,7 +1310,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <f>B12+B14</f>
@@ -1645,7 +1323,7 @@
     </row>
     <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <f>B13+B14</f>
@@ -1658,7 +1336,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <f>B12+B13+B14</f>
@@ -1671,21 +1349,21 @@
     </row>
     <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1699,7 +1377,7 @@
     </row>
     <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -1713,7 +1391,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0.3</v>
@@ -1727,7 +1405,7 @@
     </row>
     <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <f>B22+B21</f>
@@ -1744,7 +1422,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <f>B21+B23</f>
@@ -1761,7 +1439,7 @@
     </row>
     <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <f>B22+B23</f>
@@ -1778,7 +1456,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <f>B21+B22+B23</f>
@@ -1795,22 +1473,22 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -1825,7 +1503,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>0.55000000000000004</v>
@@ -1840,7 +1518,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>0.45</v>
@@ -1855,7 +1533,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <f>B31+B30</f>
@@ -1873,7 +1551,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <f>B30+B32</f>
@@ -1891,7 +1569,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <f>B31+B32</f>
@@ -1909,7 +1587,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <f>B30+B31+B32</f>
@@ -1932,23 +1610,23 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>0.7</v>
@@ -1964,7 +1642,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>0.75</v>
@@ -1980,7 +1658,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>0.65</v>
@@ -1996,7 +1674,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <f>B40+B39</f>
@@ -2015,7 +1693,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <f>B39+B41</f>
@@ -2034,7 +1712,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <f>B40+B41</f>
@@ -2053,7 +1731,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <f>B39+B40+B41</f>
@@ -2073,25 +1751,25 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>0.9</v>
@@ -2109,7 +1787,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0.95</v>
@@ -2127,7 +1805,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0.85</v>
@@ -2145,7 +1823,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <f>B49+B48</f>
@@ -2167,7 +1845,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <f>B48+B50</f>
@@ -2189,7 +1867,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <f>B49+B50</f>
@@ -2211,7 +1889,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <f>B48+B49+B50</f>
@@ -2233,24 +1911,24 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>1.2</v>
@@ -2267,7 +1945,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>1.25</v>
@@ -2284,7 +1962,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>1.1499999999999999</v>
@@ -2301,7 +1979,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <f>B58+B57</f>
@@ -2322,7 +2000,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <f>B57+B59</f>
@@ -2343,7 +2021,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <f>B58+B59</f>
@@ -2364,7 +2042,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B63">
         <f>B57+B58+B59</f>
@@ -2385,26 +2063,26 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F65" s="8"/>
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>0.2</v>
@@ -2423,7 +2101,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>0.25</v>
@@ -2442,7 +2120,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>0.15</v>
@@ -2461,7 +2139,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <f>B67+B66</f>
@@ -2484,7 +2162,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B70">
         <f>B66+B68</f>
@@ -2507,7 +2185,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B71">
         <f>B67+B68</f>
@@ -2530,7 +2208,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B72">
         <f>B66+B67+B68</f>
@@ -2560,19 +2238,19 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="12"/>
@@ -2581,7 +2259,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B75">
         <v>0.3</v>
@@ -2602,7 +2280,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B76">
         <v>0.35</v>
@@ -2623,7 +2301,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B77">
         <v>0.35</v>
@@ -2644,7 +2322,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B78">
         <f>B76+B75</f>
@@ -2669,7 +2347,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B79">
         <f>B75+B77</f>
@@ -2694,7 +2372,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B80">
         <f>B76+B77</f>
@@ -2719,7 +2397,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B81">
         <f>B75+B76+B77</f>
@@ -2751,19 +2429,19 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="12"/>
@@ -2772,7 +2450,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B84">
         <v>0.4</v>
@@ -2793,7 +2471,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B85">
         <v>0.45</v>
@@ -2814,7 +2492,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B86">
         <v>0.35</v>
@@ -2835,7 +2513,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B87">
         <f>B85+B84</f>
@@ -2860,7 +2538,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B88">
         <f>B84+B86</f>
@@ -2885,7 +2563,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B89">
         <f>B85+B86</f>
@@ -2910,7 +2588,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B90">
         <f>B84+B85+B86</f>
@@ -2942,12 +2620,12 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B93">
         <v>3.5</v>
@@ -2955,7 +2633,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B94">
         <v>3.5</v>
@@ -2963,7 +2641,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B95">
         <v>3.5</v>
@@ -2971,7 +2649,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B96">
         <v>3.5</v>
@@ -2979,21 +2657,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B99">
         <v>5000</v>
@@ -3007,7 +2685,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B100">
         <v>4000</v>
@@ -3021,7 +2699,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B101">
         <v>4500</v>
@@ -3035,7 +2713,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B102">
         <v>5200</v>
@@ -3049,18 +2727,18 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B105">
         <v>3000</v>
@@ -3071,7 +2749,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <v>2000</v>
@@ -3082,7 +2760,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B107">
         <v>2500</v>
@@ -3093,7 +2771,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B108">
         <v>3200</v>
@@ -3104,21 +2782,21 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B111">
         <v>500</v>
@@ -3132,7 +2810,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B112">
         <v>500</v>
@@ -3146,7 +2824,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B113">
         <v>500</v>
@@ -3160,7 +2838,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B114">
         <v>500</v>
@@ -3174,18 +2852,18 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B117">
         <v>300</v>
@@ -3196,7 +2874,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B118">
         <v>300</v>
@@ -3207,7 +2885,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B119">
         <v>300</v>
@@ -3218,7 +2896,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B120">
         <v>300</v>
@@ -3229,21 +2907,21 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B123">
         <v>1.8</v>
@@ -3257,7 +2935,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B124">
         <v>1.5</v>
@@ -3271,7 +2949,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B125">
         <v>2.5</v>
@@ -3285,7 +2963,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B126">
         <v>1.8</v>
@@ -3299,18 +2977,18 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B129">
         <v>1.5</v>
@@ -3321,7 +2999,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3332,7 +3010,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -3343,7 +3021,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B132">
         <v>1.5</v>
@@ -3372,18 +3050,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -3394,7 +3072,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>5500</v>
@@ -3405,7 +3083,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4500</v>
@@ -3416,12 +3094,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>7000</v>
@@ -3429,7 +3107,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>7000</v>
@@ -3437,12 +3115,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>14000</v>
@@ -3450,7 +3128,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>14000</v>
@@ -3458,7 +3136,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>14000</v>
@@ -3466,21 +3144,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>2800</v>
@@ -3494,7 +3172,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>2300</v>
@@ -3508,7 +3186,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>2550</v>
@@ -3522,7 +3200,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>2100</v>
@@ -3536,18 +3214,18 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -3558,7 +3236,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -3569,7 +3247,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>2750</v>
@@ -3580,7 +3258,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>2300</v>
@@ -3609,18 +3287,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>850</v>
@@ -3631,7 +3309,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -3642,7 +3320,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -3653,21 +3331,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -3681,7 +3359,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>800</v>
@@ -3695,7 +3373,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -3709,12 +3387,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3722,7 +3400,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3730,7 +3408,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3738,7 +3416,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -3746,7 +3424,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -3754,7 +3432,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -3762,7 +3440,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3786,21 +3464,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3814,7 +3492,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3828,24 +3506,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3862,7 +3540,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3879,24 +3557,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3913,7 +3591,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3930,7 +3608,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3947,12 +3625,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3960,7 +3638,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3968,7 +3646,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3976,7 +3654,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3999,33 +3677,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4051,7 +3729,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4077,7 +3755,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4103,7 +3781,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -4132,12 +3810,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4145,7 +3823,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -4153,7 +3831,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -4161,12 +3839,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4176,7 +3854,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4184,7 +3862,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -4192,21 +3870,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4220,7 +3898,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4234,7 +3912,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4248,21 +3926,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
         <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4276,7 +3954,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4290,7 +3968,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4304,33 +3982,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -4356,7 +4034,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>1300</v>
@@ -4382,7 +4060,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>1100</v>
@@ -4408,7 +4086,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>1200</v>
@@ -4434,12 +4112,12 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4447,7 +4125,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4455,7 +4133,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4463,7 +4141,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>0</v>
